--- a/table.xlsx
+++ b/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\Julia\SPL Scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\spl-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74A694A-404A-4ABD-A3EC-6B6E0503F04C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F83E95-E978-4979-8AD6-09FA8D3B2165}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Preferences" sheetId="1" r:id="rId1"/>
@@ -667,8 +667,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -708,7 +706,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -738,6 +735,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,8 +953,8 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Preferences"/>
+      <sheetName val="Dictionary"/>
       <sheetName val="Sheet1"/>
-      <sheetName val="Dictionary"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1683,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1377A6A-D636-40DB-9A3C-30FAF9FA189C}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1694,15 +1700,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="Q1" s="42" t="s">
+      <c r="B1" s="40"/>
+      <c r="Q1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1711,13 +1717,13 @@
       <c r="B2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="43"/>
+      <c r="S2" s="40"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1729,326 +1735,326 @@
       <c r="Q3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="R3" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="43"/>
+      <c r="S3" s="40"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="R4" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="43"/>
+      <c r="S4" s="40"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="46" t="s">
+      <c r="Q5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="43"/>
+      <c r="S5" s="40"/>
     </row>
     <row r="6" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="39">
+      <c r="B7" s="27"/>
+      <c r="C7" s="49">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="50">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="50">
         <v>3</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="50">
         <v>4</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="50">
         <v>5</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="50">
         <v>6</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="50">
         <v>7</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="50">
         <v>8</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="50">
         <v>9</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="50">
         <v>10</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="50">
         <v>11</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="50">
         <v>12</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="50">
         <v>13</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="50">
         <v>14</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="50">
         <v>15</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="50">
         <v>16</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="51">
         <v>17</v>
       </c>
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="13" t="s">
         <v>26</v>
       </c>
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="28" t="s">
+      <c r="R10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="40" t="s">
+      <c r="S10" s="37" t="s">
         <v>5</v>
       </c>
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+      <c r="A11" s="38">
         <v>1</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="23" t="s">
+      <c r="I11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="23" t="s">
+      <c r="K11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="Q11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="S11" s="22" t="s">
         <v>31</v>
       </c>
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>2</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2102,13 +2108,13 @@
       <c r="T12" s="4"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>3</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -2162,13 +2168,13 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>4</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -2222,13 +2228,13 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>5</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -2282,13 +2288,13 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>6</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -2342,13 +2348,13 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>7</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -2402,13 +2408,13 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
+      <c r="A18" s="15">
         <v>8</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -3129,7 +3135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688008D2-CBED-4999-94D8-55B52894BB1A}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -3144,58 +3150,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="36" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="29">
         <v>1</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -3203,22 +3209,22 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <v>2</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="30" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -3226,22 +3232,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <v>3</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="30" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -3249,22 +3255,22 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
+      <c r="A6" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="29">
         <v>4</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -3272,22 +3278,22 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31">
+      <c r="A7" s="29">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <v>5</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="30" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -3295,22 +3301,22 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
+      <c r="A8" s="29">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="29">
         <v>6</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -3318,22 +3324,22 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="31">
+      <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="29">
         <v>7</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -3341,22 +3347,22 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="31">
         <v>8</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="29">
         <v>8</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -3365,13 +3371,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
-      <c r="D11" s="31">
+      <c r="D11" s="29">
         <v>9</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -3380,13 +3386,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
-      <c r="D12" s="31">
+      <c r="D12" s="29">
         <v>10</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -3395,13 +3401,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="3"/>
-      <c r="D13" s="31">
+      <c r="D13" s="29">
         <v>11</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -3410,13 +3416,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
-      <c r="D14" s="31">
+      <c r="D14" s="29">
         <v>12</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -3425,13 +3431,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
-      <c r="D15" s="31">
+      <c r="D15" s="29">
         <v>13</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -3440,13 +3446,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
-      <c r="D16" s="31">
+      <c r="D16" s="29">
         <v>14</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="30" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -3455,13 +3461,13 @@
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
-      <c r="D17" s="31">
+      <c r="D17" s="29">
         <v>15</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="30" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -3470,13 +3476,13 @@
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
-      <c r="D18" s="31">
+      <c r="D18" s="29">
         <v>16</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -3485,16 +3491,16 @@
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
-      <c r="D19" s="33">
+      <c r="D19" s="31">
         <v>17</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="33" t="s">
         <v>5</v>
       </c>
     </row>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\spl-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F83E95-E978-4979-8AD6-09FA8D3B2165}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9EA577-DC36-4877-AFFC-DE3194AA7525}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Preferences" sheetId="1" r:id="rId1"/>
     <sheet name="PrefMatrix" sheetId="3" r:id="rId2"/>
-    <sheet name="Dictionary" sheetId="2" r:id="rId3"/>
+    <sheet name="AssnMatrix" sheetId="5" r:id="rId3"/>
+    <sheet name="Dictionary" sheetId="2" r:id="rId4"/>
+    <sheet name="Keys" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="49">
   <si>
     <t>i</t>
   </si>
@@ -161,19 +163,28 @@
     <t>Legend</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Top Left</t>
-  </si>
-  <si>
-    <t>Bot Right</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>S18</t>
+    <t>Cell (in sheet)</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>staff (Dictionary)</t>
+  </si>
+  <si>
+    <t>shift (Dictionary)</t>
+  </si>
+  <si>
+    <t>pref (PrefMatrix)</t>
+  </si>
+  <si>
+    <t>Key (Sheet)</t>
   </si>
 </sst>
 </file>
@@ -239,7 +250,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -708,6 +725,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,15 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1689,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1377A6A-D636-40DB-9A3C-30FAF9FA189C}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:S7"/>
+    <sheetView zoomScale="66" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1700,117 +1719,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="Q1" s="39" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="Q1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="Q2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="40"/>
+      <c r="S2" s="45"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="Q3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="R3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="40"/>
+      <c r="S3" s="45"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="40"/>
+      <c r="S4" s="45"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="Q5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="R5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="40"/>
+      <c r="S5" s="45"/>
     </row>
     <row r="6" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="49">
+      <c r="C7" s="39">
         <v>1</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="40">
         <v>2</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="40">
         <v>3</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="40">
         <v>4</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="40">
         <v>5</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="40">
         <v>6</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="40">
         <v>7</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="40">
         <v>8</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="40">
         <v>9</v>
       </c>
-      <c r="L7" s="50">
+      <c r="L7" s="40">
         <v>10</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="40">
         <v>11</v>
       </c>
-      <c r="N7" s="50">
+      <c r="N7" s="40">
         <v>12</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="40">
         <v>13</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P7" s="40">
         <v>14</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="40">
         <v>15</v>
       </c>
-      <c r="R7" s="50">
+      <c r="R7" s="40">
         <v>16</v>
       </c>
-      <c r="S7" s="51">
+      <c r="S7" s="41">
         <v>17</v>
       </c>
       <c r="T7" s="4"/>
@@ -1930,10 +1939,10 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="25" t="s">
         <v>4</v>
       </c>
@@ -2561,7 +2570,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3132,11 +3141,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9FE1CB-E762-4D98-9A11-E2BCA04378C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688008D2-CBED-4999-94D8-55B52894BB1A}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3150,17 +3171,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="44" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
@@ -3512,4 +3533,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB5B29F-A41A-4921-BC0F-9A953F72C9B0}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\spl-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9EA577-DC36-4877-AFFC-DE3194AA7525}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80EE7D9-4AEE-4028-B8BF-73BA57282A2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Preferences" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Dictionary" sheetId="2" r:id="rId4"/>
     <sheet name="Keys" sheetId="4" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -967,448 +964,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Preferences"/>
-      <sheetName val="Dictionary"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>P</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="F11" t="str">
-            <v>U</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v>U</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>U</v>
-          </cell>
-          <cell r="I11" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="J11" t="str">
-            <v>U</v>
-          </cell>
-          <cell r="K11" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="L11" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="M11" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="N11" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="O11" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="P11" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="Q11" t="str">
-            <v>U</v>
-          </cell>
-          <cell r="R11" t="str">
-            <v>U</v>
-          </cell>
-          <cell r="S11" t="str">
-            <v>U</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="F12" t="str">
-            <v>P</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v>P</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="I12" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="K12" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="L12" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="M12" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="N12" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="O12" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="P12" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="Q12" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="R12" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="S12" t="str">
-            <v>N</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>P</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="G13" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="I13" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="J13" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="K13" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="L13" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="M13" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="N13" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="O13" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="P13" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="Q13" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="R13" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="S13" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>P</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>P</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>P</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="G14" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="I14" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="J14" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="K14" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="L14" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="M14" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="N14" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="O14" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="P14" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="Q14" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="R14" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="S14" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="F15" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="G15" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="H15" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="I15" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="J15" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="K15" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="L15" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="M15" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="N15" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="O15" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="P15" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="Q15" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="R15" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="S15" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="F16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="G16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="H16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="I16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="J16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="K16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="L16" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="M16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="N16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="O16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="P16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="Q16" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="R16" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="S16" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="F17" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="G17" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="H17" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="I17" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="J17" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="K17" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="L17" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="M17" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="N17" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="O17" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="P17" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="Q17" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="R17" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="S17" t="str">
-            <v>N</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="F18" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="G18" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="H18" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="I18" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="J18" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="K18" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="L18" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="M18" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="N18" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="O18" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="P18" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="Q18" t="str">
-            <v>N</v>
-          </cell>
-          <cell r="R18" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="S18" t="str">
-            <v>C</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1709,7 +1264,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2569,569 +2124,569 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF632EB-8448-49AC-B390-FB4C681997FA}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1">
-        <f>IF([1]Preferences!C11="P",1,(IF([1]Preferences!C11="N",0,(IF([1]Preferences!C11="U",-1,(IF([1]Preferences!C11="C",-1000)))))))</f>
+        <f>IF(Preferences!C11="P",1,(IF(Preferences!C11="N",0,(IF(Preferences!C11="U",-1,(IF(Preferences!C11="C",-1000)))))))</f>
         <v>1</v>
       </c>
       <c r="B1">
-        <f>IF([1]Preferences!D11="P",1,(IF([1]Preferences!D11="N",0,(IF([1]Preferences!D11="U",-1,(IF([1]Preferences!D11="C",-1000)))))))</f>
+        <f>IF(Preferences!D11="P",1,(IF(Preferences!D11="N",0,(IF(Preferences!D11="U",-1,(IF(Preferences!D11="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="C1">
-        <f>IF([1]Preferences!E11="P",1,(IF([1]Preferences!E11="N",0,(IF([1]Preferences!E11="U",-1,(IF([1]Preferences!E11="C",-1000)))))))</f>
+        <f>IF(Preferences!E11="P",1,(IF(Preferences!E11="N",0,(IF(Preferences!E11="U",-1,(IF(Preferences!E11="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="D1">
-        <f>IF([1]Preferences!F11="P",1,(IF([1]Preferences!F11="N",0,(IF([1]Preferences!F11="U",-1,(IF([1]Preferences!F11="C",-1000)))))))</f>
+        <f>IF(Preferences!F11="P",1,(IF(Preferences!F11="N",0,(IF(Preferences!F11="U",-1,(IF(Preferences!F11="C",-1000)))))))</f>
         <v>-1</v>
       </c>
       <c r="E1">
-        <f>IF([1]Preferences!G11="P",1,(IF([1]Preferences!G11="N",0,(IF([1]Preferences!G11="U",-1,(IF([1]Preferences!G11="C",-1000)))))))</f>
+        <f>IF(Preferences!G11="P",1,(IF(Preferences!G11="N",0,(IF(Preferences!G11="U",-1,(IF(Preferences!G11="C",-1000)))))))</f>
         <v>-1</v>
       </c>
       <c r="F1">
-        <f>IF([1]Preferences!H11="P",1,(IF([1]Preferences!H11="N",0,(IF([1]Preferences!H11="U",-1,(IF([1]Preferences!H11="C",-1000)))))))</f>
+        <f>IF(Preferences!H11="P",1,(IF(Preferences!H11="N",0,(IF(Preferences!H11="U",-1,(IF(Preferences!H11="C",-1000)))))))</f>
         <v>-1</v>
       </c>
       <c r="G1">
-        <f>IF([1]Preferences!I11="P",1,(IF([1]Preferences!I11="N",0,(IF([1]Preferences!I11="U",-1,(IF([1]Preferences!I11="C",-1000)))))))</f>
+        <f>IF(Preferences!I11="P",1,(IF(Preferences!I11="N",0,(IF(Preferences!I11="U",-1,(IF(Preferences!I11="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="H1">
-        <f>IF([1]Preferences!J11="P",1,(IF([1]Preferences!J11="N",0,(IF([1]Preferences!J11="U",-1,(IF([1]Preferences!J11="C",-1000)))))))</f>
+        <f>IF(Preferences!J11="P",1,(IF(Preferences!J11="N",0,(IF(Preferences!J11="U",-1,(IF(Preferences!J11="C",-1000)))))))</f>
         <v>-1</v>
       </c>
       <c r="I1">
-        <f>IF([1]Preferences!K11="P",1,(IF([1]Preferences!K11="N",0,(IF([1]Preferences!K11="U",-1,(IF([1]Preferences!K11="C",-1000)))))))</f>
+        <f>IF(Preferences!K11="P",1,(IF(Preferences!K11="N",0,(IF(Preferences!K11="U",-1,(IF(Preferences!K11="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="J1">
-        <f>IF([1]Preferences!L11="P",1,(IF([1]Preferences!L11="N",0,(IF([1]Preferences!L11="U",-1,(IF([1]Preferences!L11="C",-1000)))))))</f>
+        <f>IF(Preferences!L11="P",1,(IF(Preferences!L11="N",0,(IF(Preferences!L11="U",-1,(IF(Preferences!L11="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="K1">
-        <f>IF([1]Preferences!M11="P",1,(IF([1]Preferences!M11="N",0,(IF([1]Preferences!M11="U",-1,(IF([1]Preferences!M11="C",-1000)))))))</f>
+        <f>IF(Preferences!M11="P",1,(IF(Preferences!M11="N",0,(IF(Preferences!M11="U",-1,(IF(Preferences!M11="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="L1">
-        <f>IF([1]Preferences!N11="P",1,(IF([1]Preferences!N11="N",0,(IF([1]Preferences!N11="U",-1,(IF([1]Preferences!N11="C",-1000)))))))</f>
+        <f>IF(Preferences!N11="P",1,(IF(Preferences!N11="N",0,(IF(Preferences!N11="U",-1,(IF(Preferences!N11="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="M1">
-        <f>IF([1]Preferences!O11="P",1,(IF([1]Preferences!O11="N",0,(IF([1]Preferences!O11="U",-1,(IF([1]Preferences!O11="C",-1000)))))))</f>
+        <f>IF(Preferences!O11="P",1,(IF(Preferences!O11="N",0,(IF(Preferences!O11="U",-1,(IF(Preferences!O11="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="N1">
-        <f>IF([1]Preferences!P11="P",1,(IF([1]Preferences!P11="N",0,(IF([1]Preferences!P11="U",-1,(IF([1]Preferences!P11="C",-1000)))))))</f>
+        <f>IF(Preferences!P11="P",1,(IF(Preferences!P11="N",0,(IF(Preferences!P11="U",-1,(IF(Preferences!P11="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="O1">
-        <f>IF([1]Preferences!Q11="P",1,(IF([1]Preferences!Q11="N",0,(IF([1]Preferences!Q11="U",-1,(IF([1]Preferences!Q11="C",-1000)))))))</f>
+        <f>IF(Preferences!Q11="P",1,(IF(Preferences!Q11="N",0,(IF(Preferences!Q11="U",-1,(IF(Preferences!Q11="C",-1000)))))))</f>
         <v>-1</v>
       </c>
       <c r="P1">
-        <f>IF([1]Preferences!R11="P",1,(IF([1]Preferences!R11="N",0,(IF([1]Preferences!R11="U",-1,(IF([1]Preferences!R11="C",-1000)))))))</f>
+        <f>IF(Preferences!R11="P",1,(IF(Preferences!R11="N",0,(IF(Preferences!R11="U",-1,(IF(Preferences!R11="C",-1000)))))))</f>
         <v>-1</v>
       </c>
       <c r="Q1">
-        <f>IF([1]Preferences!S11="P",1,(IF([1]Preferences!S11="N",0,(IF([1]Preferences!S11="U",-1,(IF([1]Preferences!S11="C",-1000)))))))</f>
+        <f>IF(Preferences!S11="P",1,(IF(Preferences!S11="N",0,(IF(Preferences!S11="U",-1,(IF(Preferences!S11="C",-1000)))))))</f>
         <v>-1</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>IF([1]Preferences!C12="P",1,(IF([1]Preferences!C12="N",0,(IF([1]Preferences!C12="U",-1,(IF([1]Preferences!C12="C",-1000)))))))</f>
+        <f>IF(Preferences!C12="P",1,(IF(Preferences!C12="N",0,(IF(Preferences!C12="U",-1,(IF(Preferences!C12="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="B2">
-        <f>IF([1]Preferences!D12="P",1,(IF([1]Preferences!D12="N",0,(IF([1]Preferences!D12="U",-1,(IF([1]Preferences!D12="C",-1000)))))))</f>
+        <f>IF(Preferences!D12="P",1,(IF(Preferences!D12="N",0,(IF(Preferences!D12="U",-1,(IF(Preferences!D12="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="C2">
-        <f>IF([1]Preferences!E12="P",1,(IF([1]Preferences!E12="N",0,(IF([1]Preferences!E12="U",-1,(IF([1]Preferences!E12="C",-1000)))))))</f>
+        <f>IF(Preferences!E12="P",1,(IF(Preferences!E12="N",0,(IF(Preferences!E12="U",-1,(IF(Preferences!E12="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="D2">
-        <f>IF([1]Preferences!F12="P",1,(IF([1]Preferences!F12="N",0,(IF([1]Preferences!F12="U",-1,(IF([1]Preferences!F12="C",-1000)))))))</f>
+        <f>IF(Preferences!F12="P",1,(IF(Preferences!F12="N",0,(IF(Preferences!F12="U",-1,(IF(Preferences!F12="C",-1000)))))))</f>
         <v>1</v>
       </c>
       <c r="E2">
-        <f>IF([1]Preferences!G12="P",1,(IF([1]Preferences!G12="N",0,(IF([1]Preferences!G12="U",-1,(IF([1]Preferences!G12="C",-1000)))))))</f>
+        <f>IF(Preferences!G12="P",1,(IF(Preferences!G12="N",0,(IF(Preferences!G12="U",-1,(IF(Preferences!G12="C",-1000)))))))</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <f>IF([1]Preferences!H12="P",1,(IF([1]Preferences!H12="N",0,(IF([1]Preferences!H12="U",-1,(IF([1]Preferences!H12="C",-1000)))))))</f>
+        <f>IF(Preferences!H12="P",1,(IF(Preferences!H12="N",0,(IF(Preferences!H12="U",-1,(IF(Preferences!H12="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="G2">
-        <f>IF([1]Preferences!I12="P",1,(IF([1]Preferences!I12="N",0,(IF([1]Preferences!I12="U",-1,(IF([1]Preferences!I12="C",-1000)))))))</f>
+        <f>IF(Preferences!I12="P",1,(IF(Preferences!I12="N",0,(IF(Preferences!I12="U",-1,(IF(Preferences!I12="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>IF([1]Preferences!J12="P",1,(IF([1]Preferences!J12="N",0,(IF([1]Preferences!J12="U",-1,(IF([1]Preferences!J12="C",-1000)))))))</f>
+        <f>IF(Preferences!J12="P",1,(IF(Preferences!J12="N",0,(IF(Preferences!J12="U",-1,(IF(Preferences!J12="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="I2">
-        <f>IF([1]Preferences!K12="P",1,(IF([1]Preferences!K12="N",0,(IF([1]Preferences!K12="U",-1,(IF([1]Preferences!K12="C",-1000)))))))</f>
+        <f>IF(Preferences!K12="P",1,(IF(Preferences!K12="N",0,(IF(Preferences!K12="U",-1,(IF(Preferences!K12="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>IF([1]Preferences!L12="P",1,(IF([1]Preferences!L12="N",0,(IF([1]Preferences!L12="U",-1,(IF([1]Preferences!L12="C",-1000)))))))</f>
+        <f>IF(Preferences!L12="P",1,(IF(Preferences!L12="N",0,(IF(Preferences!L12="U",-1,(IF(Preferences!L12="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="K2">
-        <f>IF([1]Preferences!M12="P",1,(IF([1]Preferences!M12="N",0,(IF([1]Preferences!M12="U",-1,(IF([1]Preferences!M12="C",-1000)))))))</f>
+        <f>IF(Preferences!M12="P",1,(IF(Preferences!M12="N",0,(IF(Preferences!M12="U",-1,(IF(Preferences!M12="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>IF([1]Preferences!N12="P",1,(IF([1]Preferences!N12="N",0,(IF([1]Preferences!N12="U",-1,(IF([1]Preferences!N12="C",-1000)))))))</f>
+        <f>IF(Preferences!N12="P",1,(IF(Preferences!N12="N",0,(IF(Preferences!N12="U",-1,(IF(Preferences!N12="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="M2">
-        <f>IF([1]Preferences!O12="P",1,(IF([1]Preferences!O12="N",0,(IF([1]Preferences!O12="U",-1,(IF([1]Preferences!O12="C",-1000)))))))</f>
+        <f>IF(Preferences!O12="P",1,(IF(Preferences!O12="N",0,(IF(Preferences!O12="U",-1,(IF(Preferences!O12="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>IF([1]Preferences!P12="P",1,(IF([1]Preferences!P12="N",0,(IF([1]Preferences!P12="U",-1,(IF([1]Preferences!P12="C",-1000)))))))</f>
+        <f>IF(Preferences!P12="P",1,(IF(Preferences!P12="N",0,(IF(Preferences!P12="U",-1,(IF(Preferences!P12="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="O2">
-        <f>IF([1]Preferences!Q12="P",1,(IF([1]Preferences!Q12="N",0,(IF([1]Preferences!Q12="U",-1,(IF([1]Preferences!Q12="C",-1000)))))))</f>
+        <f>IF(Preferences!Q12="P",1,(IF(Preferences!Q12="N",0,(IF(Preferences!Q12="U",-1,(IF(Preferences!Q12="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>IF([1]Preferences!R12="P",1,(IF([1]Preferences!R12="N",0,(IF([1]Preferences!R12="U",-1,(IF([1]Preferences!R12="C",-1000)))))))</f>
+        <f>IF(Preferences!R12="P",1,(IF(Preferences!R12="N",0,(IF(Preferences!R12="U",-1,(IF(Preferences!R12="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>IF([1]Preferences!S12="P",1,(IF([1]Preferences!S12="N",0,(IF([1]Preferences!S12="U",-1,(IF([1]Preferences!S12="C",-1000)))))))</f>
+        <f>IF(Preferences!S12="P",1,(IF(Preferences!S12="N",0,(IF(Preferences!S12="U",-1,(IF(Preferences!S12="C",-1000)))))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>IF([1]Preferences!C13="P",1,(IF([1]Preferences!C13="N",0,(IF([1]Preferences!C13="U",-1,(IF([1]Preferences!C13="C",-1000)))))))</f>
+        <f>IF(Preferences!C13="P",1,(IF(Preferences!C13="N",0,(IF(Preferences!C13="U",-1,(IF(Preferences!C13="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="B3">
-        <f>IF([1]Preferences!D13="P",1,(IF([1]Preferences!D13="N",0,(IF([1]Preferences!D13="U",-1,(IF([1]Preferences!D13="C",-1000)))))))</f>
+        <f>IF(Preferences!D13="P",1,(IF(Preferences!D13="N",0,(IF(Preferences!D13="U",-1,(IF(Preferences!D13="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f>IF([1]Preferences!E13="P",1,(IF([1]Preferences!E13="N",0,(IF([1]Preferences!E13="U",-1,(IF([1]Preferences!E13="C",-1000)))))))</f>
+        <f>IF(Preferences!E13="P",1,(IF(Preferences!E13="N",0,(IF(Preferences!E13="U",-1,(IF(Preferences!E13="C",-1000)))))))</f>
         <v>1</v>
       </c>
       <c r="D3">
-        <f>IF([1]Preferences!F13="P",1,(IF([1]Preferences!F13="N",0,(IF([1]Preferences!F13="U",-1,(IF([1]Preferences!F13="C",-1000)))))))</f>
+        <f>IF(Preferences!F13="P",1,(IF(Preferences!F13="N",0,(IF(Preferences!F13="U",-1,(IF(Preferences!F13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="E3">
-        <f>IF([1]Preferences!G13="P",1,(IF([1]Preferences!G13="N",0,(IF([1]Preferences!G13="U",-1,(IF([1]Preferences!G13="C",-1000)))))))</f>
+        <f>IF(Preferences!G13="P",1,(IF(Preferences!G13="N",0,(IF(Preferences!G13="U",-1,(IF(Preferences!G13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="F3">
-        <f>IF([1]Preferences!H13="P",1,(IF([1]Preferences!H13="N",0,(IF([1]Preferences!H13="U",-1,(IF([1]Preferences!H13="C",-1000)))))))</f>
+        <f>IF(Preferences!H13="P",1,(IF(Preferences!H13="N",0,(IF(Preferences!H13="U",-1,(IF(Preferences!H13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="G3">
-        <f>IF([1]Preferences!I13="P",1,(IF([1]Preferences!I13="N",0,(IF([1]Preferences!I13="U",-1,(IF([1]Preferences!I13="C",-1000)))))))</f>
+        <f>IF(Preferences!I13="P",1,(IF(Preferences!I13="N",0,(IF(Preferences!I13="U",-1,(IF(Preferences!I13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="H3">
-        <f>IF([1]Preferences!J13="P",1,(IF([1]Preferences!J13="N",0,(IF([1]Preferences!J13="U",-1,(IF([1]Preferences!J13="C",-1000)))))))</f>
+        <f>IF(Preferences!J13="P",1,(IF(Preferences!J13="N",0,(IF(Preferences!J13="U",-1,(IF(Preferences!J13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="I3">
-        <f>IF([1]Preferences!K13="P",1,(IF([1]Preferences!K13="N",0,(IF([1]Preferences!K13="U",-1,(IF([1]Preferences!K13="C",-1000)))))))</f>
+        <f>IF(Preferences!K13="P",1,(IF(Preferences!K13="N",0,(IF(Preferences!K13="U",-1,(IF(Preferences!K13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="J3">
-        <f>IF([1]Preferences!L13="P",1,(IF([1]Preferences!L13="N",0,(IF([1]Preferences!L13="U",-1,(IF([1]Preferences!L13="C",-1000)))))))</f>
+        <f>IF(Preferences!L13="P",1,(IF(Preferences!L13="N",0,(IF(Preferences!L13="U",-1,(IF(Preferences!L13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="K3">
-        <f>IF([1]Preferences!M13="P",1,(IF([1]Preferences!M13="N",0,(IF([1]Preferences!M13="U",-1,(IF([1]Preferences!M13="C",-1000)))))))</f>
+        <f>IF(Preferences!M13="P",1,(IF(Preferences!M13="N",0,(IF(Preferences!M13="U",-1,(IF(Preferences!M13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="L3">
-        <f>IF([1]Preferences!N13="P",1,(IF([1]Preferences!N13="N",0,(IF([1]Preferences!N13="U",-1,(IF([1]Preferences!N13="C",-1000)))))))</f>
+        <f>IF(Preferences!N13="P",1,(IF(Preferences!N13="N",0,(IF(Preferences!N13="U",-1,(IF(Preferences!N13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="M3">
-        <f>IF([1]Preferences!O13="P",1,(IF([1]Preferences!O13="N",0,(IF([1]Preferences!O13="U",-1,(IF([1]Preferences!O13="C",-1000)))))))</f>
+        <f>IF(Preferences!O13="P",1,(IF(Preferences!O13="N",0,(IF(Preferences!O13="U",-1,(IF(Preferences!O13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="N3">
-        <f>IF([1]Preferences!P13="P",1,(IF([1]Preferences!P13="N",0,(IF([1]Preferences!P13="U",-1,(IF([1]Preferences!P13="C",-1000)))))))</f>
+        <f>IF(Preferences!P13="P",1,(IF(Preferences!P13="N",0,(IF(Preferences!P13="U",-1,(IF(Preferences!P13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="O3">
-        <f>IF([1]Preferences!Q13="P",1,(IF([1]Preferences!Q13="N",0,(IF([1]Preferences!Q13="U",-1,(IF([1]Preferences!Q13="C",-1000)))))))</f>
+        <f>IF(Preferences!Q13="P",1,(IF(Preferences!Q13="N",0,(IF(Preferences!Q13="U",-1,(IF(Preferences!Q13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="P3">
-        <f>IF([1]Preferences!R13="P",1,(IF([1]Preferences!R13="N",0,(IF([1]Preferences!R13="U",-1,(IF([1]Preferences!R13="C",-1000)))))))</f>
+        <f>IF(Preferences!R13="P",1,(IF(Preferences!R13="N",0,(IF(Preferences!R13="U",-1,(IF(Preferences!R13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="Q3">
-        <f>IF([1]Preferences!S13="P",1,(IF([1]Preferences!S13="N",0,(IF([1]Preferences!S13="U",-1,(IF([1]Preferences!S13="C",-1000)))))))</f>
+        <f>IF(Preferences!S13="P",1,(IF(Preferences!S13="N",0,(IF(Preferences!S13="U",-1,(IF(Preferences!S13="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>IF([1]Preferences!C14="P",1,(IF([1]Preferences!C14="N",0,(IF([1]Preferences!C14="U",-1,(IF([1]Preferences!C14="C",-1000)))))))</f>
+        <f>IF(Preferences!C14="P",1,(IF(Preferences!C14="N",0,(IF(Preferences!C14="U",-1,(IF(Preferences!C14="C",-1000)))))))</f>
         <v>1</v>
       </c>
       <c r="B4">
-        <f>IF([1]Preferences!D14="P",1,(IF([1]Preferences!D14="N",0,(IF([1]Preferences!D14="U",-1,(IF([1]Preferences!D14="C",-1000)))))))</f>
+        <f>IF(Preferences!D14="P",1,(IF(Preferences!D14="N",0,(IF(Preferences!D14="U",-1,(IF(Preferences!D14="C",-1000)))))))</f>
         <v>1</v>
       </c>
       <c r="C4">
-        <f>IF([1]Preferences!E14="P",1,(IF([1]Preferences!E14="N",0,(IF([1]Preferences!E14="U",-1,(IF([1]Preferences!E14="C",-1000)))))))</f>
+        <f>IF(Preferences!E14="P",1,(IF(Preferences!E14="N",0,(IF(Preferences!E14="U",-1,(IF(Preferences!E14="C",-1000)))))))</f>
         <v>1</v>
       </c>
       <c r="D4">
-        <f>IF([1]Preferences!F14="P",1,(IF([1]Preferences!F14="N",0,(IF([1]Preferences!F14="U",-1,(IF([1]Preferences!F14="C",-1000)))))))</f>
+        <f>IF(Preferences!F14="P",1,(IF(Preferences!F14="N",0,(IF(Preferences!F14="U",-1,(IF(Preferences!F14="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="E4">
-        <f>IF([1]Preferences!G14="P",1,(IF([1]Preferences!G14="N",0,(IF([1]Preferences!G14="U",-1,(IF([1]Preferences!G14="C",-1000)))))))</f>
+        <f>IF(Preferences!G14="P",1,(IF(Preferences!G14="N",0,(IF(Preferences!G14="U",-1,(IF(Preferences!G14="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>IF([1]Preferences!H14="P",1,(IF([1]Preferences!H14="N",0,(IF([1]Preferences!H14="U",-1,(IF([1]Preferences!H14="C",-1000)))))))</f>
+        <f>IF(Preferences!H14="P",1,(IF(Preferences!H14="N",0,(IF(Preferences!H14="U",-1,(IF(Preferences!H14="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="G4">
-        <f>IF([1]Preferences!I14="P",1,(IF([1]Preferences!I14="N",0,(IF([1]Preferences!I14="U",-1,(IF([1]Preferences!I14="C",-1000)))))))</f>
+        <f>IF(Preferences!I14="P",1,(IF(Preferences!I14="N",0,(IF(Preferences!I14="U",-1,(IF(Preferences!I14="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="H4">
-        <f>IF([1]Preferences!J14="P",1,(IF([1]Preferences!J14="N",0,(IF([1]Preferences!J14="U",-1,(IF([1]Preferences!J14="C",-1000)))))))</f>
+        <f>IF(Preferences!J14="P",1,(IF(Preferences!J14="N",0,(IF(Preferences!J14="U",-1,(IF(Preferences!J14="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="I4">
-        <f>IF([1]Preferences!K14="P",1,(IF([1]Preferences!K14="N",0,(IF([1]Preferences!K14="U",-1,(IF([1]Preferences!K14="C",-1000)))))))</f>
+        <f>IF(Preferences!K14="P",1,(IF(Preferences!K14="N",0,(IF(Preferences!K14="U",-1,(IF(Preferences!K14="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="J4">
-        <f>IF([1]Preferences!L14="P",1,(IF([1]Preferences!L14="N",0,(IF([1]Preferences!L14="U",-1,(IF([1]Preferences!L14="C",-1000)))))))</f>
+        <f>IF(Preferences!L14="P",1,(IF(Preferences!L14="N",0,(IF(Preferences!L14="U",-1,(IF(Preferences!L14="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="K4">
-        <f>IF([1]Preferences!M14="P",1,(IF([1]Preferences!M14="N",0,(IF([1]Preferences!M14="U",-1,(IF([1]Preferences!M14="C",-1000)))))))</f>
+        <f>IF(Preferences!M14="P",1,(IF(Preferences!M14="N",0,(IF(Preferences!M14="U",-1,(IF(Preferences!M14="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="L4">
-        <f>IF([1]Preferences!N14="P",1,(IF([1]Preferences!N14="N",0,(IF([1]Preferences!N14="U",-1,(IF([1]Preferences!N14="C",-1000)))))))</f>
+        <f>IF(Preferences!N14="P",1,(IF(Preferences!N14="N",0,(IF(Preferences!N14="U",-1,(IF(Preferences!N14="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="M4">
-        <f>IF([1]Preferences!O14="P",1,(IF([1]Preferences!O14="N",0,(IF([1]Preferences!O14="U",-1,(IF([1]Preferences!O14="C",-1000)))))))</f>
+        <f>IF(Preferences!O14="P",1,(IF(Preferences!O14="N",0,(IF(Preferences!O14="U",-1,(IF(Preferences!O14="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="N4">
-        <f>IF([1]Preferences!P14="P",1,(IF([1]Preferences!P14="N",0,(IF([1]Preferences!P14="U",-1,(IF([1]Preferences!P14="C",-1000)))))))</f>
+        <f>IF(Preferences!P14="P",1,(IF(Preferences!P14="N",0,(IF(Preferences!P14="U",-1,(IF(Preferences!P14="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="O4">
-        <f>IF([1]Preferences!Q14="P",1,(IF([1]Preferences!Q14="N",0,(IF([1]Preferences!Q14="U",-1,(IF([1]Preferences!Q14="C",-1000)))))))</f>
+        <f>IF(Preferences!Q14="P",1,(IF(Preferences!Q14="N",0,(IF(Preferences!Q14="U",-1,(IF(Preferences!Q14="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="P4">
-        <f>IF([1]Preferences!R14="P",1,(IF([1]Preferences!R14="N",0,(IF([1]Preferences!R14="U",-1,(IF([1]Preferences!R14="C",-1000)))))))</f>
+        <f>IF(Preferences!R14="P",1,(IF(Preferences!R14="N",0,(IF(Preferences!R14="U",-1,(IF(Preferences!R14="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="Q4">
-        <f>IF([1]Preferences!S14="P",1,(IF([1]Preferences!S14="N",0,(IF([1]Preferences!S14="U",-1,(IF([1]Preferences!S14="C",-1000)))))))</f>
+        <f>IF(Preferences!S14="P",1,(IF(Preferences!S14="N",0,(IF(Preferences!S14="U",-1,(IF(Preferences!S14="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>IF([1]Preferences!C15="P",1,(IF([1]Preferences!C15="N",0,(IF([1]Preferences!C15="U",-1,(IF([1]Preferences!C15="C",-1000)))))))</f>
+        <f>IF(Preferences!C15="P",1,(IF(Preferences!C15="N",0,(IF(Preferences!C15="U",-1,(IF(Preferences!C15="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="B5">
-        <f>IF([1]Preferences!D15="P",1,(IF([1]Preferences!D15="N",0,(IF([1]Preferences!D15="U",-1,(IF([1]Preferences!D15="C",-1000)))))))</f>
+        <f>IF(Preferences!D15="P",1,(IF(Preferences!D15="N",0,(IF(Preferences!D15="U",-1,(IF(Preferences!D15="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="C5">
-        <f>IF([1]Preferences!E15="P",1,(IF([1]Preferences!E15="N",0,(IF([1]Preferences!E15="U",-1,(IF([1]Preferences!E15="C",-1000)))))))</f>
+        <f>IF(Preferences!E15="P",1,(IF(Preferences!E15="N",0,(IF(Preferences!E15="U",-1,(IF(Preferences!E15="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>IF([1]Preferences!F15="P",1,(IF([1]Preferences!F15="N",0,(IF([1]Preferences!F15="U",-1,(IF([1]Preferences!F15="C",-1000)))))))</f>
+        <f>IF(Preferences!F15="P",1,(IF(Preferences!F15="N",0,(IF(Preferences!F15="U",-1,(IF(Preferences!F15="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>IF([1]Preferences!G15="P",1,(IF([1]Preferences!G15="N",0,(IF([1]Preferences!G15="U",-1,(IF([1]Preferences!G15="C",-1000)))))))</f>
+        <f>IF(Preferences!G15="P",1,(IF(Preferences!G15="N",0,(IF(Preferences!G15="U",-1,(IF(Preferences!G15="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>IF([1]Preferences!H15="P",1,(IF([1]Preferences!H15="N",0,(IF([1]Preferences!H15="U",-1,(IF([1]Preferences!H15="C",-1000)))))))</f>
+        <f>IF(Preferences!H15="P",1,(IF(Preferences!H15="N",0,(IF(Preferences!H15="U",-1,(IF(Preferences!H15="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="G5">
-        <f>IF([1]Preferences!I15="P",1,(IF([1]Preferences!I15="N",0,(IF([1]Preferences!I15="U",-1,(IF([1]Preferences!I15="C",-1000)))))))</f>
+        <f>IF(Preferences!I15="P",1,(IF(Preferences!I15="N",0,(IF(Preferences!I15="U",-1,(IF(Preferences!I15="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="H5">
-        <f>IF([1]Preferences!J15="P",1,(IF([1]Preferences!J15="N",0,(IF([1]Preferences!J15="U",-1,(IF([1]Preferences!J15="C",-1000)))))))</f>
+        <f>IF(Preferences!J15="P",1,(IF(Preferences!J15="N",0,(IF(Preferences!J15="U",-1,(IF(Preferences!J15="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="I5">
-        <f>IF([1]Preferences!K15="P",1,(IF([1]Preferences!K15="N",0,(IF([1]Preferences!K15="U",-1,(IF([1]Preferences!K15="C",-1000)))))))</f>
+        <f>IF(Preferences!K15="P",1,(IF(Preferences!K15="N",0,(IF(Preferences!K15="U",-1,(IF(Preferences!K15="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="J5">
-        <f>IF([1]Preferences!L15="P",1,(IF([1]Preferences!L15="N",0,(IF([1]Preferences!L15="U",-1,(IF([1]Preferences!L15="C",-1000)))))))</f>
+        <f>IF(Preferences!L15="P",1,(IF(Preferences!L15="N",0,(IF(Preferences!L15="U",-1,(IF(Preferences!L15="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="K5">
-        <f>IF([1]Preferences!M15="P",1,(IF([1]Preferences!M15="N",0,(IF([1]Preferences!M15="U",-1,(IF([1]Preferences!M15="C",-1000)))))))</f>
+        <f>IF(Preferences!M15="P",1,(IF(Preferences!M15="N",0,(IF(Preferences!M15="U",-1,(IF(Preferences!M15="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="L5">
-        <f>IF([1]Preferences!N15="P",1,(IF([1]Preferences!N15="N",0,(IF([1]Preferences!N15="U",-1,(IF([1]Preferences!N15="C",-1000)))))))</f>
+        <f>IF(Preferences!N15="P",1,(IF(Preferences!N15="N",0,(IF(Preferences!N15="U",-1,(IF(Preferences!N15="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="M5">
-        <f>IF([1]Preferences!O15="P",1,(IF([1]Preferences!O15="N",0,(IF([1]Preferences!O15="U",-1,(IF([1]Preferences!O15="C",-1000)))))))</f>
+        <f>IF(Preferences!O15="P",1,(IF(Preferences!O15="N",0,(IF(Preferences!O15="U",-1,(IF(Preferences!O15="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="N5">
-        <f>IF([1]Preferences!P15="P",1,(IF([1]Preferences!P15="N",0,(IF([1]Preferences!P15="U",-1,(IF([1]Preferences!P15="C",-1000)))))))</f>
+        <f>IF(Preferences!P15="P",1,(IF(Preferences!P15="N",0,(IF(Preferences!P15="U",-1,(IF(Preferences!P15="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="O5">
-        <f>IF([1]Preferences!Q15="P",1,(IF([1]Preferences!Q15="N",0,(IF([1]Preferences!Q15="U",-1,(IF([1]Preferences!Q15="C",-1000)))))))</f>
+        <f>IF(Preferences!Q15="P",1,(IF(Preferences!Q15="N",0,(IF(Preferences!Q15="U",-1,(IF(Preferences!Q15="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="P5">
-        <f>IF([1]Preferences!R15="P",1,(IF([1]Preferences!R15="N",0,(IF([1]Preferences!R15="U",-1,(IF([1]Preferences!R15="C",-1000)))))))</f>
+        <f>IF(Preferences!R15="P",1,(IF(Preferences!R15="N",0,(IF(Preferences!R15="U",-1,(IF(Preferences!R15="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="Q5">
-        <f>IF([1]Preferences!S15="P",1,(IF([1]Preferences!S15="N",0,(IF([1]Preferences!S15="U",-1,(IF([1]Preferences!S15="C",-1000)))))))</f>
+        <f>IF(Preferences!S15="P",1,(IF(Preferences!S15="N",0,(IF(Preferences!S15="U",-1,(IF(Preferences!S15="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>IF([1]Preferences!C16="P",1,(IF([1]Preferences!C16="N",0,(IF([1]Preferences!C16="U",-1,(IF([1]Preferences!C16="C",-1000)))))))</f>
+        <f>IF(Preferences!C16="P",1,(IF(Preferences!C16="N",0,(IF(Preferences!C16="U",-1,(IF(Preferences!C16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="B6">
-        <f>IF([1]Preferences!D16="P",1,(IF([1]Preferences!D16="N",0,(IF([1]Preferences!D16="U",-1,(IF([1]Preferences!D16="C",-1000)))))))</f>
+        <f>IF(Preferences!D16="P",1,(IF(Preferences!D16="N",0,(IF(Preferences!D16="U",-1,(IF(Preferences!D16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="C6">
-        <f>IF([1]Preferences!E16="P",1,(IF([1]Preferences!E16="N",0,(IF([1]Preferences!E16="U",-1,(IF([1]Preferences!E16="C",-1000)))))))</f>
+        <f>IF(Preferences!E16="P",1,(IF(Preferences!E16="N",0,(IF(Preferences!E16="U",-1,(IF(Preferences!E16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="D6">
-        <f>IF([1]Preferences!F16="P",1,(IF([1]Preferences!F16="N",0,(IF([1]Preferences!F16="U",-1,(IF([1]Preferences!F16="C",-1000)))))))</f>
+        <f>IF(Preferences!F16="P",1,(IF(Preferences!F16="N",0,(IF(Preferences!F16="U",-1,(IF(Preferences!F16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="E6">
-        <f>IF([1]Preferences!G16="P",1,(IF([1]Preferences!G16="N",0,(IF([1]Preferences!G16="U",-1,(IF([1]Preferences!G16="C",-1000)))))))</f>
+        <f>IF(Preferences!G16="P",1,(IF(Preferences!G16="N",0,(IF(Preferences!G16="U",-1,(IF(Preferences!G16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="F6">
-        <f>IF([1]Preferences!H16="P",1,(IF([1]Preferences!H16="N",0,(IF([1]Preferences!H16="U",-1,(IF([1]Preferences!H16="C",-1000)))))))</f>
+        <f>IF(Preferences!H16="P",1,(IF(Preferences!H16="N",0,(IF(Preferences!H16="U",-1,(IF(Preferences!H16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="G6">
-        <f>IF([1]Preferences!I16="P",1,(IF([1]Preferences!I16="N",0,(IF([1]Preferences!I16="U",-1,(IF([1]Preferences!I16="C",-1000)))))))</f>
+        <f>IF(Preferences!I16="P",1,(IF(Preferences!I16="N",0,(IF(Preferences!I16="U",-1,(IF(Preferences!I16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="H6">
-        <f>IF([1]Preferences!J16="P",1,(IF([1]Preferences!J16="N",0,(IF([1]Preferences!J16="U",-1,(IF([1]Preferences!J16="C",-1000)))))))</f>
+        <f>IF(Preferences!J16="P",1,(IF(Preferences!J16="N",0,(IF(Preferences!J16="U",-1,(IF(Preferences!J16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="I6">
-        <f>IF([1]Preferences!K16="P",1,(IF([1]Preferences!K16="N",0,(IF([1]Preferences!K16="U",-1,(IF([1]Preferences!K16="C",-1000)))))))</f>
+        <f>IF(Preferences!K16="P",1,(IF(Preferences!K16="N",0,(IF(Preferences!K16="U",-1,(IF(Preferences!K16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="J6">
-        <f>IF([1]Preferences!L16="P",1,(IF([1]Preferences!L16="N",0,(IF([1]Preferences!L16="U",-1,(IF([1]Preferences!L16="C",-1000)))))))</f>
+        <f>IF(Preferences!L16="P",1,(IF(Preferences!L16="N",0,(IF(Preferences!L16="U",-1,(IF(Preferences!L16="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="K6">
-        <f>IF([1]Preferences!M16="P",1,(IF([1]Preferences!M16="N",0,(IF([1]Preferences!M16="U",-1,(IF([1]Preferences!M16="C",-1000)))))))</f>
+        <f>IF(Preferences!M16="P",1,(IF(Preferences!M16="N",0,(IF(Preferences!M16="U",-1,(IF(Preferences!M16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="L6">
-        <f>IF([1]Preferences!N16="P",1,(IF([1]Preferences!N16="N",0,(IF([1]Preferences!N16="U",-1,(IF([1]Preferences!N16="C",-1000)))))))</f>
+        <f>IF(Preferences!N16="P",1,(IF(Preferences!N16="N",0,(IF(Preferences!N16="U",-1,(IF(Preferences!N16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="M6">
-        <f>IF([1]Preferences!O16="P",1,(IF([1]Preferences!O16="N",0,(IF([1]Preferences!O16="U",-1,(IF([1]Preferences!O16="C",-1000)))))))</f>
+        <f>IF(Preferences!O16="P",1,(IF(Preferences!O16="N",0,(IF(Preferences!O16="U",-1,(IF(Preferences!O16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="N6">
-        <f>IF([1]Preferences!P16="P",1,(IF([1]Preferences!P16="N",0,(IF([1]Preferences!P16="U",-1,(IF([1]Preferences!P16="C",-1000)))))))</f>
+        <f>IF(Preferences!P16="P",1,(IF(Preferences!P16="N",0,(IF(Preferences!P16="U",-1,(IF(Preferences!P16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="O6">
-        <f>IF([1]Preferences!Q16="P",1,(IF([1]Preferences!Q16="N",0,(IF([1]Preferences!Q16="U",-1,(IF([1]Preferences!Q16="C",-1000)))))))</f>
+        <f>IF(Preferences!Q16="P",1,(IF(Preferences!Q16="N",0,(IF(Preferences!Q16="U",-1,(IF(Preferences!Q16="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>IF([1]Preferences!R16="P",1,(IF([1]Preferences!R16="N",0,(IF([1]Preferences!R16="U",-1,(IF([1]Preferences!R16="C",-1000)))))))</f>
+        <f>IF(Preferences!R16="P",1,(IF(Preferences!R16="N",0,(IF(Preferences!R16="U",-1,(IF(Preferences!R16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="Q6">
-        <f>IF([1]Preferences!S16="P",1,(IF([1]Preferences!S16="N",0,(IF([1]Preferences!S16="U",-1,(IF([1]Preferences!S16="C",-1000)))))))</f>
+        <f>IF(Preferences!S16="P",1,(IF(Preferences!S16="N",0,(IF(Preferences!S16="U",-1,(IF(Preferences!S16="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>IF([1]Preferences!C17="P",1,(IF([1]Preferences!C17="N",0,(IF([1]Preferences!C17="U",-1,(IF([1]Preferences!C17="C",-1000)))))))</f>
+        <f>IF(Preferences!C17="P",1,(IF(Preferences!C17="N",0,(IF(Preferences!C17="U",-1,(IF(Preferences!C17="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="B7">
-        <f>IF([1]Preferences!D17="P",1,(IF([1]Preferences!D17="N",0,(IF([1]Preferences!D17="U",-1,(IF([1]Preferences!D17="C",-1000)))))))</f>
+        <f>IF(Preferences!D17="P",1,(IF(Preferences!D17="N",0,(IF(Preferences!D17="U",-1,(IF(Preferences!D17="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="C7">
-        <f>IF([1]Preferences!E17="P",1,(IF([1]Preferences!E17="N",0,(IF([1]Preferences!E17="U",-1,(IF([1]Preferences!E17="C",-1000)))))))</f>
+        <f>IF(Preferences!E17="P",1,(IF(Preferences!E17="N",0,(IF(Preferences!E17="U",-1,(IF(Preferences!E17="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="D7">
-        <f>IF([1]Preferences!F17="P",1,(IF([1]Preferences!F17="N",0,(IF([1]Preferences!F17="U",-1,(IF([1]Preferences!F17="C",-1000)))))))</f>
+        <f>IF(Preferences!F17="P",1,(IF(Preferences!F17="N",0,(IF(Preferences!F17="U",-1,(IF(Preferences!F17="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="E7">
-        <f>IF([1]Preferences!G17="P",1,(IF([1]Preferences!G17="N",0,(IF([1]Preferences!G17="U",-1,(IF([1]Preferences!G17="C",-1000)))))))</f>
+        <f>IF(Preferences!G17="P",1,(IF(Preferences!G17="N",0,(IF(Preferences!G17="U",-1,(IF(Preferences!G17="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="F7">
-        <f>IF([1]Preferences!H17="P",1,(IF([1]Preferences!H17="N",0,(IF([1]Preferences!H17="U",-1,(IF([1]Preferences!H17="C",-1000)))))))</f>
+        <f>IF(Preferences!H17="P",1,(IF(Preferences!H17="N",0,(IF(Preferences!H17="U",-1,(IF(Preferences!H17="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="G7">
-        <f>IF([1]Preferences!I17="P",1,(IF([1]Preferences!I17="N",0,(IF([1]Preferences!I17="U",-1,(IF([1]Preferences!I17="C",-1000)))))))</f>
+        <f>IF(Preferences!I17="P",1,(IF(Preferences!I17="N",0,(IF(Preferences!I17="U",-1,(IF(Preferences!I17="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="H7">
-        <f>IF([1]Preferences!J17="P",1,(IF([1]Preferences!J17="N",0,(IF([1]Preferences!J17="U",-1,(IF([1]Preferences!J17="C",-1000)))))))</f>
+        <f>IF(Preferences!J17="P",1,(IF(Preferences!J17="N",0,(IF(Preferences!J17="U",-1,(IF(Preferences!J17="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="I7">
-        <f>IF([1]Preferences!K17="P",1,(IF([1]Preferences!K17="N",0,(IF([1]Preferences!K17="U",-1,(IF([1]Preferences!K17="C",-1000)))))))</f>
+        <f>IF(Preferences!K17="P",1,(IF(Preferences!K17="N",0,(IF(Preferences!K17="U",-1,(IF(Preferences!K17="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="J7">
-        <f>IF([1]Preferences!L17="P",1,(IF([1]Preferences!L17="N",0,(IF([1]Preferences!L17="U",-1,(IF([1]Preferences!L17="C",-1000)))))))</f>
+        <f>IF(Preferences!L17="P",1,(IF(Preferences!L17="N",0,(IF(Preferences!L17="U",-1,(IF(Preferences!L17="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="K7">
-        <f>IF([1]Preferences!M17="P",1,(IF([1]Preferences!M17="N",0,(IF([1]Preferences!M17="U",-1,(IF([1]Preferences!M17="C",-1000)))))))</f>
+        <f>IF(Preferences!M17="P",1,(IF(Preferences!M17="N",0,(IF(Preferences!M17="U",-1,(IF(Preferences!M17="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>IF([1]Preferences!N17="P",1,(IF([1]Preferences!N17="N",0,(IF([1]Preferences!N17="U",-1,(IF([1]Preferences!N17="C",-1000)))))))</f>
+        <f>IF(Preferences!N17="P",1,(IF(Preferences!N17="N",0,(IF(Preferences!N17="U",-1,(IF(Preferences!N17="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>IF([1]Preferences!O17="P",1,(IF([1]Preferences!O17="N",0,(IF([1]Preferences!O17="U",-1,(IF([1]Preferences!O17="C",-1000)))))))</f>
+        <f>IF(Preferences!O17="P",1,(IF(Preferences!O17="N",0,(IF(Preferences!O17="U",-1,(IF(Preferences!O17="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>IF([1]Preferences!P17="P",1,(IF([1]Preferences!P17="N",0,(IF([1]Preferences!P17="U",-1,(IF([1]Preferences!P17="C",-1000)))))))</f>
+        <f>IF(Preferences!P17="P",1,(IF(Preferences!P17="N",0,(IF(Preferences!P17="U",-1,(IF(Preferences!P17="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="O7">
-        <f>IF([1]Preferences!Q17="P",1,(IF([1]Preferences!Q17="N",0,(IF([1]Preferences!Q17="U",-1,(IF([1]Preferences!Q17="C",-1000)))))))</f>
+        <f>IF(Preferences!Q17="P",1,(IF(Preferences!Q17="N",0,(IF(Preferences!Q17="U",-1,(IF(Preferences!Q17="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="P7">
-        <f>IF([1]Preferences!R17="P",1,(IF([1]Preferences!R17="N",0,(IF([1]Preferences!R17="U",-1,(IF([1]Preferences!R17="C",-1000)))))))</f>
+        <f>IF(Preferences!R17="P",1,(IF(Preferences!R17="N",0,(IF(Preferences!R17="U",-1,(IF(Preferences!R17="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>IF([1]Preferences!S17="P",1,(IF([1]Preferences!S17="N",0,(IF([1]Preferences!S17="U",-1,(IF([1]Preferences!S17="C",-1000)))))))</f>
+        <f>IF(Preferences!S17="P",1,(IF(Preferences!S17="N",0,(IF(Preferences!S17="U",-1,(IF(Preferences!S17="C",-1000)))))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>IF([1]Preferences!C18="P",1,(IF([1]Preferences!C18="N",0,(IF([1]Preferences!C18="U",-1,(IF([1]Preferences!C18="C",-1000)))))))</f>
+        <f>IF(Preferences!C18="P",1,(IF(Preferences!C18="N",0,(IF(Preferences!C18="U",-1,(IF(Preferences!C18="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="B8">
-        <f>IF([1]Preferences!D18="P",1,(IF([1]Preferences!D18="N",0,(IF([1]Preferences!D18="U",-1,(IF([1]Preferences!D18="C",-1000)))))))</f>
+        <f>IF(Preferences!D18="P",1,(IF(Preferences!D18="N",0,(IF(Preferences!D18="U",-1,(IF(Preferences!D18="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="C8">
-        <f>IF([1]Preferences!E18="P",1,(IF([1]Preferences!E18="N",0,(IF([1]Preferences!E18="U",-1,(IF([1]Preferences!E18="C",-1000)))))))</f>
+        <f>IF(Preferences!E18="P",1,(IF(Preferences!E18="N",0,(IF(Preferences!E18="U",-1,(IF(Preferences!E18="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="D8">
-        <f>IF([1]Preferences!F18="P",1,(IF([1]Preferences!F18="N",0,(IF([1]Preferences!F18="U",-1,(IF([1]Preferences!F18="C",-1000)))))))</f>
+        <f>IF(Preferences!F18="P",1,(IF(Preferences!F18="N",0,(IF(Preferences!F18="U",-1,(IF(Preferences!F18="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="E8">
-        <f>IF([1]Preferences!G18="P",1,(IF([1]Preferences!G18="N",0,(IF([1]Preferences!G18="U",-1,(IF([1]Preferences!G18="C",-1000)))))))</f>
+        <f>IF(Preferences!G18="P",1,(IF(Preferences!G18="N",0,(IF(Preferences!G18="U",-1,(IF(Preferences!G18="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="F8">
-        <f>IF([1]Preferences!H18="P",1,(IF([1]Preferences!H18="N",0,(IF([1]Preferences!H18="U",-1,(IF([1]Preferences!H18="C",-1000)))))))</f>
+        <f>IF(Preferences!H18="P",1,(IF(Preferences!H18="N",0,(IF(Preferences!H18="U",-1,(IF(Preferences!H18="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="G8">
-        <f>IF([1]Preferences!I18="P",1,(IF([1]Preferences!I18="N",0,(IF([1]Preferences!I18="U",-1,(IF([1]Preferences!I18="C",-1000)))))))</f>
+        <f>IF(Preferences!I18="P",1,(IF(Preferences!I18="N",0,(IF(Preferences!I18="U",-1,(IF(Preferences!I18="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>IF([1]Preferences!J18="P",1,(IF([1]Preferences!J18="N",0,(IF([1]Preferences!J18="U",-1,(IF([1]Preferences!J18="C",-1000)))))))</f>
+        <f>IF(Preferences!J18="P",1,(IF(Preferences!J18="N",0,(IF(Preferences!J18="U",-1,(IF(Preferences!J18="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="I8">
-        <f>IF([1]Preferences!K18="P",1,(IF([1]Preferences!K18="N",0,(IF([1]Preferences!K18="U",-1,(IF([1]Preferences!K18="C",-1000)))))))</f>
+        <f>IF(Preferences!K18="P",1,(IF(Preferences!K18="N",0,(IF(Preferences!K18="U",-1,(IF(Preferences!K18="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>IF([1]Preferences!L18="P",1,(IF([1]Preferences!L18="N",0,(IF([1]Preferences!L18="U",-1,(IF([1]Preferences!L18="C",-1000)))))))</f>
+        <f>IF(Preferences!L18="P",1,(IF(Preferences!L18="N",0,(IF(Preferences!L18="U",-1,(IF(Preferences!L18="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="K8">
-        <f>IF([1]Preferences!M18="P",1,(IF([1]Preferences!M18="N",0,(IF([1]Preferences!M18="U",-1,(IF([1]Preferences!M18="C",-1000)))))))</f>
+        <f>IF(Preferences!M18="P",1,(IF(Preferences!M18="N",0,(IF(Preferences!M18="U",-1,(IF(Preferences!M18="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>IF([1]Preferences!N18="P",1,(IF([1]Preferences!N18="N",0,(IF([1]Preferences!N18="U",-1,(IF([1]Preferences!N18="C",-1000)))))))</f>
+        <f>IF(Preferences!N18="P",1,(IF(Preferences!N18="N",0,(IF(Preferences!N18="U",-1,(IF(Preferences!N18="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="M8">
-        <f>IF([1]Preferences!O18="P",1,(IF([1]Preferences!O18="N",0,(IF([1]Preferences!O18="U",-1,(IF([1]Preferences!O18="C",-1000)))))))</f>
+        <f>IF(Preferences!O18="P",1,(IF(Preferences!O18="N",0,(IF(Preferences!O18="U",-1,(IF(Preferences!O18="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>IF([1]Preferences!P18="P",1,(IF([1]Preferences!P18="N",0,(IF([1]Preferences!P18="U",-1,(IF([1]Preferences!P18="C",-1000)))))))</f>
+        <f>IF(Preferences!P18="P",1,(IF(Preferences!P18="N",0,(IF(Preferences!P18="U",-1,(IF(Preferences!P18="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="O8">
-        <f>IF([1]Preferences!Q18="P",1,(IF([1]Preferences!Q18="N",0,(IF([1]Preferences!Q18="U",-1,(IF([1]Preferences!Q18="C",-1000)))))))</f>
+        <f>IF(Preferences!Q18="P",1,(IF(Preferences!Q18="N",0,(IF(Preferences!Q18="U",-1,(IF(Preferences!Q18="C",-1000)))))))</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>IF([1]Preferences!R18="P",1,(IF([1]Preferences!R18="N",0,(IF([1]Preferences!R18="U",-1,(IF([1]Preferences!R18="C",-1000)))))))</f>
+        <f>IF(Preferences!R18="P",1,(IF(Preferences!R18="N",0,(IF(Preferences!R18="U",-1,(IF(Preferences!R18="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
       <c r="Q8">
-        <f>IF([1]Preferences!S18="P",1,(IF([1]Preferences!S18="N",0,(IF([1]Preferences!S18="U",-1,(IF([1]Preferences!S18="C",-1000)))))))</f>
+        <f>IF(Preferences!S18="P",1,(IF(Preferences!S18="N",0,(IF(Preferences!S18="U",-1,(IF(Preferences!S18="C",-1000)))))))</f>
         <v>-1000</v>
       </c>
     </row>
@@ -3144,7 +2699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9FE1CB-E762-4D98-9A11-E2BCA04378C5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -3157,7 +2712,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3540,7 +3095,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\spl-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80EE7D9-4AEE-4028-B8BF-73BA57282A2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1D9B6-D811-4641-BE5F-D33C80DD9F8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Preferences" sheetId="1" r:id="rId1"/>
     <sheet name="PrefMatrix" sheetId="3" r:id="rId2"/>
-    <sheet name="AssnMatrix" sheetId="5" r:id="rId3"/>
-    <sheet name="Dictionary" sheetId="2" r:id="rId4"/>
-    <sheet name="Keys" sheetId="4" r:id="rId5"/>
+    <sheet name="Dictionary" sheetId="2" r:id="rId3"/>
+    <sheet name="Keys" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -660,12 +659,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -681,7 +679,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -713,7 +711,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1261,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1377A6A-D636-40DB-9A3C-30FAF9FA189C}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1273,763 +1270,751 @@
     <col min="3" max="16384" width="15.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="Q1" s="44" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="Q1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="Q2" s="20" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="Q2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="45"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="Q3" s="6" t="s">
+      <c r="S2" s="43"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="Q3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="45"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q4" s="21" t="s">
+      <c r="S3" s="43"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="45"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="48" t="s">
+      <c r="S4" s="43"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="45"/>
-    </row>
-    <row r="6" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="39">
+      <c r="S5" s="43"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="37">
         <v>1</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="38">
         <v>2</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="38">
         <v>3</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="38">
         <v>4</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="38">
         <v>5</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="38">
         <v>6</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="38">
         <v>7</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="38">
         <v>8</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="38">
         <v>9</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="38">
         <v>10</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="38">
         <v>11</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="38">
         <v>12</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="38">
         <v>13</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="38">
         <v>14</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="38">
         <v>15</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="38">
         <v>16</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="39">
         <v>17</v>
       </c>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="28" t="s">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="24" t="s">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="R10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="37" t="s">
+      <c r="S10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="T10" s="4"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="36">
         <v>1</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="21" t="s">
+      <c r="D11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="21" t="s">
+      <c r="I11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="21" t="s">
+      <c r="K11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="21" t="s">
+      <c r="R11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="22" t="s">
+      <c r="S11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="4"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>2</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="C12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="H12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="6" t="s">
+      <c r="J12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="6" t="s">
+      <c r="L12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="6" t="s">
+      <c r="N12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="6" t="s">
+      <c r="P12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="4"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="F13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="4"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="H14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="H15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="C16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="6" t="s">
+      <c r="M16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T16" s="4"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="R16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="C17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="6" t="s">
+      <c r="P17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S17" s="9" t="s">
+      <c r="S17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15">
+    </row>
+    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
         <v>8</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="C18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="10" t="s">
+      <c r="J18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="L18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="10" t="s">
+      <c r="N18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="10" t="s">
+      <c r="P18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="4"/>
+      <c r="R18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I38" s="1" t="s">
@@ -2125,7 +2110,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2696,18 +2681,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9FE1CB-E762-4D98-9A11-E2BCA04378C5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688008D2-CBED-4999-94D8-55B52894BB1A}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -2726,58 +2699,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>1</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2785,22 +2758,22 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>2</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -2808,22 +2781,22 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>3</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -2831,22 +2804,22 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>4</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -2854,22 +2827,22 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>5</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -2877,22 +2850,22 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>6</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2900,22 +2873,22 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>7</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -2923,22 +2896,22 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
+      <c r="A10" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>8</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -2947,13 +2920,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>9</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -2962,13 +2935,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>10</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -2977,13 +2950,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="3"/>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>11</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -2992,13 +2965,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>12</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -3007,13 +2980,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>13</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -3022,13 +2995,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>14</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -3037,13 +3010,13 @@
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>15</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -3052,13 +3025,13 @@
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <v>16</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -3067,16 +3040,16 @@
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
-      <c r="D19" s="31">
+      <c r="D19" s="29">
         <v>17</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="31" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3090,7 +3063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB5B29F-A41A-4921-BC0F-9A953F72C9B0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3104,15 +3077,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3120,7 +3093,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3128,7 +3101,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\spl-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1D9B6-D811-4641-BE5F-D33C80DD9F8F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4472B739-6FCC-4149-B41F-78A25C848B6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Preferences" sheetId="1" r:id="rId1"/>
-    <sheet name="PrefMatrix" sheetId="3" r:id="rId2"/>
-    <sheet name="Dictionary" sheetId="2" r:id="rId3"/>
-    <sheet name="Keys" sheetId="4" r:id="rId4"/>
+    <sheet name="Dictionary" sheetId="2" r:id="rId2"/>
+    <sheet name="PrefMatrix" sheetId="3" r:id="rId3"/>
+    <sheet name="Assignments" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,8 +36,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jason</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{149E75EF-3AEF-4699-BA93-EE5BAB5CC46A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Manual update)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of staff members </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9DBD4DBB-D650-4718-AF1C-A3C927A4EC46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Manual update)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Number of shifts</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="42">
   <si>
     <t>i</t>
   </si>
@@ -126,9 +187,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Shifts</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -159,35 +217,17 @@
     <t>Legend</t>
   </si>
   <si>
-    <t>Cell (in sheet)</t>
+    <t>Unassigned</t>
   </si>
   <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>G19</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>staff (Dictionary)</t>
-  </si>
-  <si>
-    <t>shift (Dictionary)</t>
-  </si>
-  <si>
-    <t>pref (PrefMatrix)</t>
-  </si>
-  <si>
-    <t>Key (Sheet)</t>
+    <t>Assigned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +285,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +330,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -510,17 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -560,15 +608,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -655,16 +694,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -680,7 +851,6 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,69 +870,835 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="101">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -959,6 +1895,444 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="AssnMatrix"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1">
+            <v>0</v>
+          </cell>
+          <cell r="B1">
+            <v>0</v>
+          </cell>
+          <cell r="C1">
+            <v>0</v>
+          </cell>
+          <cell r="D1">
+            <v>0</v>
+          </cell>
+          <cell r="E1">
+            <v>0</v>
+          </cell>
+          <cell r="F1">
+            <v>1</v>
+          </cell>
+          <cell r="G1">
+            <v>0</v>
+          </cell>
+          <cell r="H1">
+            <v>1</v>
+          </cell>
+          <cell r="I1">
+            <v>0</v>
+          </cell>
+          <cell r="J1">
+            <v>0</v>
+          </cell>
+          <cell r="K1">
+            <v>0</v>
+          </cell>
+          <cell r="L1">
+            <v>0</v>
+          </cell>
+          <cell r="M1">
+            <v>0</v>
+          </cell>
+          <cell r="N1">
+            <v>1</v>
+          </cell>
+          <cell r="O1">
+            <v>0</v>
+          </cell>
+          <cell r="P1">
+            <v>0</v>
+          </cell>
+          <cell r="Q1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>0</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>1</v>
+          </cell>
+          <cell r="J2">
+            <v>0</v>
+          </cell>
+          <cell r="K2">
+            <v>1</v>
+          </cell>
+          <cell r="L2">
+            <v>0</v>
+          </cell>
+          <cell r="M2">
+            <v>1</v>
+          </cell>
+          <cell r="N2">
+            <v>0</v>
+          </cell>
+          <cell r="O2">
+            <v>0</v>
+          </cell>
+          <cell r="P2">
+            <v>1</v>
+          </cell>
+          <cell r="Q2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>0</v>
+          </cell>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+          <cell r="I3">
+            <v>0</v>
+          </cell>
+          <cell r="J3">
+            <v>0</v>
+          </cell>
+          <cell r="K3">
+            <v>0</v>
+          </cell>
+          <cell r="L3">
+            <v>0</v>
+          </cell>
+          <cell r="M3">
+            <v>0</v>
+          </cell>
+          <cell r="N3">
+            <v>0</v>
+          </cell>
+          <cell r="O3">
+            <v>0</v>
+          </cell>
+          <cell r="P3">
+            <v>0</v>
+          </cell>
+          <cell r="Q3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1</v>
+          </cell>
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="K4">
+            <v>0</v>
+          </cell>
+          <cell r="L4">
+            <v>0</v>
+          </cell>
+          <cell r="M4">
+            <v>0</v>
+          </cell>
+          <cell r="N4">
+            <v>0</v>
+          </cell>
+          <cell r="O4">
+            <v>0</v>
+          </cell>
+          <cell r="P4">
+            <v>0</v>
+          </cell>
+          <cell r="Q4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>0</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="L5">
+            <v>0</v>
+          </cell>
+          <cell r="M5">
+            <v>0</v>
+          </cell>
+          <cell r="N5">
+            <v>0</v>
+          </cell>
+          <cell r="O5">
+            <v>0</v>
+          </cell>
+          <cell r="P5">
+            <v>0</v>
+          </cell>
+          <cell r="Q5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>0</v>
+          </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+          <cell r="J6">
+            <v>1</v>
+          </cell>
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+          <cell r="O6">
+            <v>1</v>
+          </cell>
+          <cell r="P6">
+            <v>0</v>
+          </cell>
+          <cell r="Q6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>0</v>
+          </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
+          <cell r="K7">
+            <v>0</v>
+          </cell>
+          <cell r="L7">
+            <v>1</v>
+          </cell>
+          <cell r="M7">
+            <v>0</v>
+          </cell>
+          <cell r="N7">
+            <v>0</v>
+          </cell>
+          <cell r="O7">
+            <v>0</v>
+          </cell>
+          <cell r="P7">
+            <v>0</v>
+          </cell>
+          <cell r="Q7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>0</v>
+          </cell>
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>0</v>
+          </cell>
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+          <cell r="G8">
+            <v>1</v>
+          </cell>
+          <cell r="H8">
+            <v>0</v>
+          </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+          <cell r="J8">
+            <v>0</v>
+          </cell>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>0</v>
+          </cell>
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+          <cell r="N8">
+            <v>0</v>
+          </cell>
+          <cell r="O8">
+            <v>0</v>
+          </cell>
+          <cell r="P8">
+            <v>0</v>
+          </cell>
+          <cell r="Q8">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1260,8 +2634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1377A6A-D636-40DB-9A3C-30FAF9FA189C}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScale="72" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1271,219 +2645,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="43"/>
+      <c r="A1" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="B1" s="43"/>
-      <c r="Q1" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="Q2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="46" t="s">
+      <c r="A2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="43"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="Q3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="46" t="s">
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="43"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="46" t="s">
+      <c r="C4" s="47"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="43"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="43"/>
+      <c r="C5" s="47"/>
     </row>
     <row r="6" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="37">
+      <c r="A7" s="5"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="34">
         <v>1</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="35">
         <v>2</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="35">
         <v>3</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="35">
         <v>4</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="35">
         <v>5</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="36">
         <v>6</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="36">
         <v>7</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="36">
         <v>8</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="36">
         <v>9</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="36">
         <v>10</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="36">
         <v>11</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="36">
         <v>12</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="36">
         <v>13</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="36">
         <v>14</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7" s="36">
         <v>15</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="36">
         <v>16</v>
       </c>
-      <c r="S7" s="39">
+      <c r="S7" s="37">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="23" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S9" s="39" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1492,613 +2860,612 @@
         <v>0</v>
       </c>
       <c r="B10" s="45"/>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="P10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="41" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
+      <c r="A11" s="33">
         <v>1</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="Q11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="20" t="s">
+      <c r="J12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="20" t="s">
+      <c r="L12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="N12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="P12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="R12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="S12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="20" t="s">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>2</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="F13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>4</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>5</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>6</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>7</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
         <v>8</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="B18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="J18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="L18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="N18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="P18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>4</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
-        <v>5</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>6</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
-        <v>7</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
-        <v>8</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>32</v>
+      <c r="R18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:S18">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="100" priority="17" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="99" priority="18" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="98" priority="19" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="97" priority="20" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",Q2)))</formula>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="containsText" dxfId="96" priority="13" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",Q2)))</formula>
+    <cfRule type="containsText" dxfId="95" priority="14" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="U">
-      <formula>NOT(ISERROR(SEARCH("U",Q2)))</formula>
+    <cfRule type="containsText" dxfId="94" priority="15" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",Q2)))</formula>
+    <cfRule type="containsText" dxfId="93" priority="16" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",Q3)))</formula>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="containsText" dxfId="92" priority="9" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",Q3)))</formula>
+    <cfRule type="containsText" dxfId="91" priority="10" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="U">
-      <formula>NOT(ISERROR(SEARCH("U",Q3)))</formula>
+    <cfRule type="containsText" dxfId="90" priority="11" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",Q3)))</formula>
+    <cfRule type="containsText" dxfId="89" priority="12" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",Q4)))</formula>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="88" priority="5" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",Q4)))</formula>
+    <cfRule type="containsText" dxfId="87" priority="6" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="U">
-      <formula>NOT(ISERROR(SEARCH("U",Q4)))</formula>
+    <cfRule type="containsText" dxfId="86" priority="7" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",Q4)))</formula>
+    <cfRule type="containsText" dxfId="85" priority="8" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",Q5)))</formula>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="containsText" dxfId="84" priority="1" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="P">
-      <formula>NOT(ISERROR(SEARCH("P",Q5)))</formula>
+    <cfRule type="containsText" dxfId="83" priority="2" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="U">
-      <formula>NOT(ISERROR(SEARCH("U",Q5)))</formula>
+    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",Q5)))</formula>
+    <cfRule type="containsText" dxfId="81" priority="4" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2106,586 +3473,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF632EB-8448-49AC-B390-FB4C681997FA}">
-  <dimension ref="A1:Q8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <f>IF(Preferences!C11="P",1,(IF(Preferences!C11="N",0,(IF(Preferences!C11="U",-1,(IF(Preferences!C11="C",-1000)))))))</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <f>IF(Preferences!D11="P",1,(IF(Preferences!D11="N",0,(IF(Preferences!D11="U",-1,(IF(Preferences!D11="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="C1">
-        <f>IF(Preferences!E11="P",1,(IF(Preferences!E11="N",0,(IF(Preferences!E11="U",-1,(IF(Preferences!E11="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="D1">
-        <f>IF(Preferences!F11="P",1,(IF(Preferences!F11="N",0,(IF(Preferences!F11="U",-1,(IF(Preferences!F11="C",-1000)))))))</f>
-        <v>-1</v>
-      </c>
-      <c r="E1">
-        <f>IF(Preferences!G11="P",1,(IF(Preferences!G11="N",0,(IF(Preferences!G11="U",-1,(IF(Preferences!G11="C",-1000)))))))</f>
-        <v>-1</v>
-      </c>
-      <c r="F1">
-        <f>IF(Preferences!H11="P",1,(IF(Preferences!H11="N",0,(IF(Preferences!H11="U",-1,(IF(Preferences!H11="C",-1000)))))))</f>
-        <v>-1</v>
-      </c>
-      <c r="G1">
-        <f>IF(Preferences!I11="P",1,(IF(Preferences!I11="N",0,(IF(Preferences!I11="U",-1,(IF(Preferences!I11="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="H1">
-        <f>IF(Preferences!J11="P",1,(IF(Preferences!J11="N",0,(IF(Preferences!J11="U",-1,(IF(Preferences!J11="C",-1000)))))))</f>
-        <v>-1</v>
-      </c>
-      <c r="I1">
-        <f>IF(Preferences!K11="P",1,(IF(Preferences!K11="N",0,(IF(Preferences!K11="U",-1,(IF(Preferences!K11="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="J1">
-        <f>IF(Preferences!L11="P",1,(IF(Preferences!L11="N",0,(IF(Preferences!L11="U",-1,(IF(Preferences!L11="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="K1">
-        <f>IF(Preferences!M11="P",1,(IF(Preferences!M11="N",0,(IF(Preferences!M11="U",-1,(IF(Preferences!M11="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="L1">
-        <f>IF(Preferences!N11="P",1,(IF(Preferences!N11="N",0,(IF(Preferences!N11="U",-1,(IF(Preferences!N11="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="M1">
-        <f>IF(Preferences!O11="P",1,(IF(Preferences!O11="N",0,(IF(Preferences!O11="U",-1,(IF(Preferences!O11="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="N1">
-        <f>IF(Preferences!P11="P",1,(IF(Preferences!P11="N",0,(IF(Preferences!P11="U",-1,(IF(Preferences!P11="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <f>IF(Preferences!Q11="P",1,(IF(Preferences!Q11="N",0,(IF(Preferences!Q11="U",-1,(IF(Preferences!Q11="C",-1000)))))))</f>
-        <v>-1</v>
-      </c>
-      <c r="P1">
-        <f>IF(Preferences!R11="P",1,(IF(Preferences!R11="N",0,(IF(Preferences!R11="U",-1,(IF(Preferences!R11="C",-1000)))))))</f>
-        <v>-1</v>
-      </c>
-      <c r="Q1">
-        <f>IF(Preferences!S11="P",1,(IF(Preferences!S11="N",0,(IF(Preferences!S11="U",-1,(IF(Preferences!S11="C",-1000)))))))</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f>IF(Preferences!C12="P",1,(IF(Preferences!C12="N",0,(IF(Preferences!C12="U",-1,(IF(Preferences!C12="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="B2">
-        <f>IF(Preferences!D12="P",1,(IF(Preferences!D12="N",0,(IF(Preferences!D12="U",-1,(IF(Preferences!D12="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="C2">
-        <f>IF(Preferences!E12="P",1,(IF(Preferences!E12="N",0,(IF(Preferences!E12="U",-1,(IF(Preferences!E12="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="D2">
-        <f>IF(Preferences!F12="P",1,(IF(Preferences!F12="N",0,(IF(Preferences!F12="U",-1,(IF(Preferences!F12="C",-1000)))))))</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>IF(Preferences!G12="P",1,(IF(Preferences!G12="N",0,(IF(Preferences!G12="U",-1,(IF(Preferences!G12="C",-1000)))))))</f>
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <f>IF(Preferences!H12="P",1,(IF(Preferences!H12="N",0,(IF(Preferences!H12="U",-1,(IF(Preferences!H12="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="G2">
-        <f>IF(Preferences!I12="P",1,(IF(Preferences!I12="N",0,(IF(Preferences!I12="U",-1,(IF(Preferences!I12="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>IF(Preferences!J12="P",1,(IF(Preferences!J12="N",0,(IF(Preferences!J12="U",-1,(IF(Preferences!J12="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="I2">
-        <f>IF(Preferences!K12="P",1,(IF(Preferences!K12="N",0,(IF(Preferences!K12="U",-1,(IF(Preferences!K12="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>IF(Preferences!L12="P",1,(IF(Preferences!L12="N",0,(IF(Preferences!L12="U",-1,(IF(Preferences!L12="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="K2">
-        <f>IF(Preferences!M12="P",1,(IF(Preferences!M12="N",0,(IF(Preferences!M12="U",-1,(IF(Preferences!M12="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>IF(Preferences!N12="P",1,(IF(Preferences!N12="N",0,(IF(Preferences!N12="U",-1,(IF(Preferences!N12="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="M2">
-        <f>IF(Preferences!O12="P",1,(IF(Preferences!O12="N",0,(IF(Preferences!O12="U",-1,(IF(Preferences!O12="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f>IF(Preferences!P12="P",1,(IF(Preferences!P12="N",0,(IF(Preferences!P12="U",-1,(IF(Preferences!P12="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="O2">
-        <f>IF(Preferences!Q12="P",1,(IF(Preferences!Q12="N",0,(IF(Preferences!Q12="U",-1,(IF(Preferences!Q12="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>IF(Preferences!R12="P",1,(IF(Preferences!R12="N",0,(IF(Preferences!R12="U",-1,(IF(Preferences!R12="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>IF(Preferences!S12="P",1,(IF(Preferences!S12="N",0,(IF(Preferences!S12="U",-1,(IF(Preferences!S12="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>IF(Preferences!C13="P",1,(IF(Preferences!C13="N",0,(IF(Preferences!C13="U",-1,(IF(Preferences!C13="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <f>IF(Preferences!D13="P",1,(IF(Preferences!D13="N",0,(IF(Preferences!D13="U",-1,(IF(Preferences!D13="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>IF(Preferences!E13="P",1,(IF(Preferences!E13="N",0,(IF(Preferences!E13="U",-1,(IF(Preferences!E13="C",-1000)))))))</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>IF(Preferences!F13="P",1,(IF(Preferences!F13="N",0,(IF(Preferences!F13="U",-1,(IF(Preferences!F13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="E3">
-        <f>IF(Preferences!G13="P",1,(IF(Preferences!G13="N",0,(IF(Preferences!G13="U",-1,(IF(Preferences!G13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="F3">
-        <f>IF(Preferences!H13="P",1,(IF(Preferences!H13="N",0,(IF(Preferences!H13="U",-1,(IF(Preferences!H13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="G3">
-        <f>IF(Preferences!I13="P",1,(IF(Preferences!I13="N",0,(IF(Preferences!I13="U",-1,(IF(Preferences!I13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="H3">
-        <f>IF(Preferences!J13="P",1,(IF(Preferences!J13="N",0,(IF(Preferences!J13="U",-1,(IF(Preferences!J13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="I3">
-        <f>IF(Preferences!K13="P",1,(IF(Preferences!K13="N",0,(IF(Preferences!K13="U",-1,(IF(Preferences!K13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="J3">
-        <f>IF(Preferences!L13="P",1,(IF(Preferences!L13="N",0,(IF(Preferences!L13="U",-1,(IF(Preferences!L13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="K3">
-        <f>IF(Preferences!M13="P",1,(IF(Preferences!M13="N",0,(IF(Preferences!M13="U",-1,(IF(Preferences!M13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="L3">
-        <f>IF(Preferences!N13="P",1,(IF(Preferences!N13="N",0,(IF(Preferences!N13="U",-1,(IF(Preferences!N13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="M3">
-        <f>IF(Preferences!O13="P",1,(IF(Preferences!O13="N",0,(IF(Preferences!O13="U",-1,(IF(Preferences!O13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="N3">
-        <f>IF(Preferences!P13="P",1,(IF(Preferences!P13="N",0,(IF(Preferences!P13="U",-1,(IF(Preferences!P13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="O3">
-        <f>IF(Preferences!Q13="P",1,(IF(Preferences!Q13="N",0,(IF(Preferences!Q13="U",-1,(IF(Preferences!Q13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="P3">
-        <f>IF(Preferences!R13="P",1,(IF(Preferences!R13="N",0,(IF(Preferences!R13="U",-1,(IF(Preferences!R13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="Q3">
-        <f>IF(Preferences!S13="P",1,(IF(Preferences!S13="N",0,(IF(Preferences!S13="U",-1,(IF(Preferences!S13="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f>IF(Preferences!C14="P",1,(IF(Preferences!C14="N",0,(IF(Preferences!C14="U",-1,(IF(Preferences!C14="C",-1000)))))))</f>
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f>IF(Preferences!D14="P",1,(IF(Preferences!D14="N",0,(IF(Preferences!D14="U",-1,(IF(Preferences!D14="C",-1000)))))))</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f>IF(Preferences!E14="P",1,(IF(Preferences!E14="N",0,(IF(Preferences!E14="U",-1,(IF(Preferences!E14="C",-1000)))))))</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f>IF(Preferences!F14="P",1,(IF(Preferences!F14="N",0,(IF(Preferences!F14="U",-1,(IF(Preferences!F14="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="E4">
-        <f>IF(Preferences!G14="P",1,(IF(Preferences!G14="N",0,(IF(Preferences!G14="U",-1,(IF(Preferences!G14="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f>IF(Preferences!H14="P",1,(IF(Preferences!H14="N",0,(IF(Preferences!H14="U",-1,(IF(Preferences!H14="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="G4">
-        <f>IF(Preferences!I14="P",1,(IF(Preferences!I14="N",0,(IF(Preferences!I14="U",-1,(IF(Preferences!I14="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="H4">
-        <f>IF(Preferences!J14="P",1,(IF(Preferences!J14="N",0,(IF(Preferences!J14="U",-1,(IF(Preferences!J14="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="I4">
-        <f>IF(Preferences!K14="P",1,(IF(Preferences!K14="N",0,(IF(Preferences!K14="U",-1,(IF(Preferences!K14="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="J4">
-        <f>IF(Preferences!L14="P",1,(IF(Preferences!L14="N",0,(IF(Preferences!L14="U",-1,(IF(Preferences!L14="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="K4">
-        <f>IF(Preferences!M14="P",1,(IF(Preferences!M14="N",0,(IF(Preferences!M14="U",-1,(IF(Preferences!M14="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="L4">
-        <f>IF(Preferences!N14="P",1,(IF(Preferences!N14="N",0,(IF(Preferences!N14="U",-1,(IF(Preferences!N14="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="M4">
-        <f>IF(Preferences!O14="P",1,(IF(Preferences!O14="N",0,(IF(Preferences!O14="U",-1,(IF(Preferences!O14="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="N4">
-        <f>IF(Preferences!P14="P",1,(IF(Preferences!P14="N",0,(IF(Preferences!P14="U",-1,(IF(Preferences!P14="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="O4">
-        <f>IF(Preferences!Q14="P",1,(IF(Preferences!Q14="N",0,(IF(Preferences!Q14="U",-1,(IF(Preferences!Q14="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="P4">
-        <f>IF(Preferences!R14="P",1,(IF(Preferences!R14="N",0,(IF(Preferences!R14="U",-1,(IF(Preferences!R14="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="Q4">
-        <f>IF(Preferences!S14="P",1,(IF(Preferences!S14="N",0,(IF(Preferences!S14="U",-1,(IF(Preferences!S14="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>IF(Preferences!C15="P",1,(IF(Preferences!C15="N",0,(IF(Preferences!C15="U",-1,(IF(Preferences!C15="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <f>IF(Preferences!D15="P",1,(IF(Preferences!D15="N",0,(IF(Preferences!D15="U",-1,(IF(Preferences!D15="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f>IF(Preferences!E15="P",1,(IF(Preferences!E15="N",0,(IF(Preferences!E15="U",-1,(IF(Preferences!E15="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>IF(Preferences!F15="P",1,(IF(Preferences!F15="N",0,(IF(Preferences!F15="U",-1,(IF(Preferences!F15="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>IF(Preferences!G15="P",1,(IF(Preferences!G15="N",0,(IF(Preferences!G15="U",-1,(IF(Preferences!G15="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f>IF(Preferences!H15="P",1,(IF(Preferences!H15="N",0,(IF(Preferences!H15="U",-1,(IF(Preferences!H15="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="G5">
-        <f>IF(Preferences!I15="P",1,(IF(Preferences!I15="N",0,(IF(Preferences!I15="U",-1,(IF(Preferences!I15="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="H5">
-        <f>IF(Preferences!J15="P",1,(IF(Preferences!J15="N",0,(IF(Preferences!J15="U",-1,(IF(Preferences!J15="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="I5">
-        <f>IF(Preferences!K15="P",1,(IF(Preferences!K15="N",0,(IF(Preferences!K15="U",-1,(IF(Preferences!K15="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="J5">
-        <f>IF(Preferences!L15="P",1,(IF(Preferences!L15="N",0,(IF(Preferences!L15="U",-1,(IF(Preferences!L15="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="K5">
-        <f>IF(Preferences!M15="P",1,(IF(Preferences!M15="N",0,(IF(Preferences!M15="U",-1,(IF(Preferences!M15="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="L5">
-        <f>IF(Preferences!N15="P",1,(IF(Preferences!N15="N",0,(IF(Preferences!N15="U",-1,(IF(Preferences!N15="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="M5">
-        <f>IF(Preferences!O15="P",1,(IF(Preferences!O15="N",0,(IF(Preferences!O15="U",-1,(IF(Preferences!O15="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="N5">
-        <f>IF(Preferences!P15="P",1,(IF(Preferences!P15="N",0,(IF(Preferences!P15="U",-1,(IF(Preferences!P15="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="O5">
-        <f>IF(Preferences!Q15="P",1,(IF(Preferences!Q15="N",0,(IF(Preferences!Q15="U",-1,(IF(Preferences!Q15="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="P5">
-        <f>IF(Preferences!R15="P",1,(IF(Preferences!R15="N",0,(IF(Preferences!R15="U",-1,(IF(Preferences!R15="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="Q5">
-        <f>IF(Preferences!S15="P",1,(IF(Preferences!S15="N",0,(IF(Preferences!S15="U",-1,(IF(Preferences!S15="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f>IF(Preferences!C16="P",1,(IF(Preferences!C16="N",0,(IF(Preferences!C16="U",-1,(IF(Preferences!C16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="B6">
-        <f>IF(Preferences!D16="P",1,(IF(Preferences!D16="N",0,(IF(Preferences!D16="U",-1,(IF(Preferences!D16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="C6">
-        <f>IF(Preferences!E16="P",1,(IF(Preferences!E16="N",0,(IF(Preferences!E16="U",-1,(IF(Preferences!E16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="D6">
-        <f>IF(Preferences!F16="P",1,(IF(Preferences!F16="N",0,(IF(Preferences!F16="U",-1,(IF(Preferences!F16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="E6">
-        <f>IF(Preferences!G16="P",1,(IF(Preferences!G16="N",0,(IF(Preferences!G16="U",-1,(IF(Preferences!G16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="F6">
-        <f>IF(Preferences!H16="P",1,(IF(Preferences!H16="N",0,(IF(Preferences!H16="U",-1,(IF(Preferences!H16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="G6">
-        <f>IF(Preferences!I16="P",1,(IF(Preferences!I16="N",0,(IF(Preferences!I16="U",-1,(IF(Preferences!I16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="H6">
-        <f>IF(Preferences!J16="P",1,(IF(Preferences!J16="N",0,(IF(Preferences!J16="U",-1,(IF(Preferences!J16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="I6">
-        <f>IF(Preferences!K16="P",1,(IF(Preferences!K16="N",0,(IF(Preferences!K16="U",-1,(IF(Preferences!K16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="J6">
-        <f>IF(Preferences!L16="P",1,(IF(Preferences!L16="N",0,(IF(Preferences!L16="U",-1,(IF(Preferences!L16="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f>IF(Preferences!M16="P",1,(IF(Preferences!M16="N",0,(IF(Preferences!M16="U",-1,(IF(Preferences!M16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="L6">
-        <f>IF(Preferences!N16="P",1,(IF(Preferences!N16="N",0,(IF(Preferences!N16="U",-1,(IF(Preferences!N16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="M6">
-        <f>IF(Preferences!O16="P",1,(IF(Preferences!O16="N",0,(IF(Preferences!O16="U",-1,(IF(Preferences!O16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="N6">
-        <f>IF(Preferences!P16="P",1,(IF(Preferences!P16="N",0,(IF(Preferences!P16="U",-1,(IF(Preferences!P16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="O6">
-        <f>IF(Preferences!Q16="P",1,(IF(Preferences!Q16="N",0,(IF(Preferences!Q16="U",-1,(IF(Preferences!Q16="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f>IF(Preferences!R16="P",1,(IF(Preferences!R16="N",0,(IF(Preferences!R16="U",-1,(IF(Preferences!R16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="Q6">
-        <f>IF(Preferences!S16="P",1,(IF(Preferences!S16="N",0,(IF(Preferences!S16="U",-1,(IF(Preferences!S16="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f>IF(Preferences!C17="P",1,(IF(Preferences!C17="N",0,(IF(Preferences!C17="U",-1,(IF(Preferences!C17="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="B7">
-        <f>IF(Preferences!D17="P",1,(IF(Preferences!D17="N",0,(IF(Preferences!D17="U",-1,(IF(Preferences!D17="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="C7">
-        <f>IF(Preferences!E17="P",1,(IF(Preferences!E17="N",0,(IF(Preferences!E17="U",-1,(IF(Preferences!E17="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="D7">
-        <f>IF(Preferences!F17="P",1,(IF(Preferences!F17="N",0,(IF(Preferences!F17="U",-1,(IF(Preferences!F17="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="E7">
-        <f>IF(Preferences!G17="P",1,(IF(Preferences!G17="N",0,(IF(Preferences!G17="U",-1,(IF(Preferences!G17="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="F7">
-        <f>IF(Preferences!H17="P",1,(IF(Preferences!H17="N",0,(IF(Preferences!H17="U",-1,(IF(Preferences!H17="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="G7">
-        <f>IF(Preferences!I17="P",1,(IF(Preferences!I17="N",0,(IF(Preferences!I17="U",-1,(IF(Preferences!I17="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="H7">
-        <f>IF(Preferences!J17="P",1,(IF(Preferences!J17="N",0,(IF(Preferences!J17="U",-1,(IF(Preferences!J17="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="I7">
-        <f>IF(Preferences!K17="P",1,(IF(Preferences!K17="N",0,(IF(Preferences!K17="U",-1,(IF(Preferences!K17="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="J7">
-        <f>IF(Preferences!L17="P",1,(IF(Preferences!L17="N",0,(IF(Preferences!L17="U",-1,(IF(Preferences!L17="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f>IF(Preferences!M17="P",1,(IF(Preferences!M17="N",0,(IF(Preferences!M17="U",-1,(IF(Preferences!M17="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f>IF(Preferences!N17="P",1,(IF(Preferences!N17="N",0,(IF(Preferences!N17="U",-1,(IF(Preferences!N17="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>IF(Preferences!O17="P",1,(IF(Preferences!O17="N",0,(IF(Preferences!O17="U",-1,(IF(Preferences!O17="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f>IF(Preferences!P17="P",1,(IF(Preferences!P17="N",0,(IF(Preferences!P17="U",-1,(IF(Preferences!P17="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="O7">
-        <f>IF(Preferences!Q17="P",1,(IF(Preferences!Q17="N",0,(IF(Preferences!Q17="U",-1,(IF(Preferences!Q17="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="P7">
-        <f>IF(Preferences!R17="P",1,(IF(Preferences!R17="N",0,(IF(Preferences!R17="U",-1,(IF(Preferences!R17="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f>IF(Preferences!S17="P",1,(IF(Preferences!S17="N",0,(IF(Preferences!S17="U",-1,(IF(Preferences!S17="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f>IF(Preferences!C18="P",1,(IF(Preferences!C18="N",0,(IF(Preferences!C18="U",-1,(IF(Preferences!C18="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="B8">
-        <f>IF(Preferences!D18="P",1,(IF(Preferences!D18="N",0,(IF(Preferences!D18="U",-1,(IF(Preferences!D18="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="C8">
-        <f>IF(Preferences!E18="P",1,(IF(Preferences!E18="N",0,(IF(Preferences!E18="U",-1,(IF(Preferences!E18="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="D8">
-        <f>IF(Preferences!F18="P",1,(IF(Preferences!F18="N",0,(IF(Preferences!F18="U",-1,(IF(Preferences!F18="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="E8">
-        <f>IF(Preferences!G18="P",1,(IF(Preferences!G18="N",0,(IF(Preferences!G18="U",-1,(IF(Preferences!G18="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="F8">
-        <f>IF(Preferences!H18="P",1,(IF(Preferences!H18="N",0,(IF(Preferences!H18="U",-1,(IF(Preferences!H18="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="G8">
-        <f>IF(Preferences!I18="P",1,(IF(Preferences!I18="N",0,(IF(Preferences!I18="U",-1,(IF(Preferences!I18="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f>IF(Preferences!J18="P",1,(IF(Preferences!J18="N",0,(IF(Preferences!J18="U",-1,(IF(Preferences!J18="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="I8">
-        <f>IF(Preferences!K18="P",1,(IF(Preferences!K18="N",0,(IF(Preferences!K18="U",-1,(IF(Preferences!K18="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>IF(Preferences!L18="P",1,(IF(Preferences!L18="N",0,(IF(Preferences!L18="U",-1,(IF(Preferences!L18="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="K8">
-        <f>IF(Preferences!M18="P",1,(IF(Preferences!M18="N",0,(IF(Preferences!M18="U",-1,(IF(Preferences!M18="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>IF(Preferences!N18="P",1,(IF(Preferences!N18="N",0,(IF(Preferences!N18="U",-1,(IF(Preferences!N18="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="M8">
-        <f>IF(Preferences!O18="P",1,(IF(Preferences!O18="N",0,(IF(Preferences!O18="U",-1,(IF(Preferences!O18="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f>IF(Preferences!P18="P",1,(IF(Preferences!P18="N",0,(IF(Preferences!P18="U",-1,(IF(Preferences!P18="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="O8">
-        <f>IF(Preferences!Q18="P",1,(IF(Preferences!Q18="N",0,(IF(Preferences!Q18="U",-1,(IF(Preferences!Q18="C",-1000)))))))</f>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f>IF(Preferences!R18="P",1,(IF(Preferences!R18="N",0,(IF(Preferences!R18="U",-1,(IF(Preferences!R18="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-      <c r="Q8">
-        <f>IF(Preferences!S18="P",1,(IF(Preferences!S18="N",0,(IF(Preferences!S18="U",-1,(IF(Preferences!S18="C",-1000)))))))</f>
-        <v>-1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688008D2-CBED-4999-94D8-55B52894BB1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688008D2-CBED-4999-94D8-55B52894BB1A}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2699,43 +3491,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="42">
+        <v>8</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="42">
+        <v>17</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2744,7 +3540,7 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="26">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2758,7 +3554,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2767,7 +3563,7 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2781,7 +3577,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2790,7 +3586,7 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="26">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -2804,7 +3600,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2813,7 +3609,7 @@
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="26">
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2827,7 +3623,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2836,7 +3632,7 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -2850,7 +3646,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="26">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2859,7 +3655,7 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2873,7 +3669,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="26">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2882,7 +3678,7 @@
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2896,16 +3692,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2920,7 +3716,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
-      <c r="D11" s="28">
+      <c r="D11" s="26">
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2935,7 +3731,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
-      <c r="D12" s="28">
+      <c r="D12" s="26">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2950,7 +3746,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="3"/>
-      <c r="D13" s="28">
+      <c r="D13" s="26">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2965,7 +3761,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2980,7 +3776,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
-      <c r="D15" s="28">
+      <c r="D15" s="26">
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2995,7 +3791,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
-      <c r="D16" s="28">
+      <c r="D16" s="26">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -3010,7 +3806,7 @@
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
-      <c r="D17" s="28">
+      <c r="D17" s="26">
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -3025,7 +3821,7 @@
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
-      <c r="D18" s="28">
+      <c r="D18" s="26">
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -3040,75 +3836,1583 @@
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
-      <c r="D19" s="29">
+      <c r="D19" s="27">
         <v>17</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="29" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF632EB-8448-49AC-B390-FB4C681997FA}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <f>IF(Preferences!C11="P",1,(IF(Preferences!C11="N",0,(IF(Preferences!C11="U",-1,(IF(Preferences!C11="C",-1000)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <f>IF(Preferences!D11="P",1,(IF(Preferences!D11="N",0,(IF(Preferences!D11="U",-1,(IF(Preferences!D11="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="C1">
+        <f>IF(Preferences!E11="P",1,(IF(Preferences!E11="N",0,(IF(Preferences!E11="U",-1,(IF(Preferences!E11="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="D1">
+        <f>IF(Preferences!F11="P",1,(IF(Preferences!F11="N",0,(IF(Preferences!F11="U",-1,(IF(Preferences!F11="C",-1000)))))))</f>
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <f>IF(Preferences!G11="P",1,(IF(Preferences!G11="N",0,(IF(Preferences!G11="U",-1,(IF(Preferences!G11="C",-1000)))))))</f>
+        <v>-1</v>
+      </c>
+      <c r="F1">
+        <f>IF(Preferences!H11="P",1,(IF(Preferences!H11="N",0,(IF(Preferences!H11="U",-1,(IF(Preferences!H11="C",-1000)))))))</f>
+        <v>-1</v>
+      </c>
+      <c r="G1">
+        <f>IF(Preferences!I11="P",1,(IF(Preferences!I11="N",0,(IF(Preferences!I11="U",-1,(IF(Preferences!I11="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="H1">
+        <f>IF(Preferences!J11="P",1,(IF(Preferences!J11="N",0,(IF(Preferences!J11="U",-1,(IF(Preferences!J11="C",-1000)))))))</f>
+        <v>-1</v>
+      </c>
+      <c r="I1">
+        <f>IF(Preferences!K11="P",1,(IF(Preferences!K11="N",0,(IF(Preferences!K11="U",-1,(IF(Preferences!K11="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="J1">
+        <f>IF(Preferences!L11="P",1,(IF(Preferences!L11="N",0,(IF(Preferences!L11="U",-1,(IF(Preferences!L11="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="K1">
+        <f>IF(Preferences!M11="P",1,(IF(Preferences!M11="N",0,(IF(Preferences!M11="U",-1,(IF(Preferences!M11="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="L1">
+        <f>IF(Preferences!N11="P",1,(IF(Preferences!N11="N",0,(IF(Preferences!N11="U",-1,(IF(Preferences!N11="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="M1">
+        <f>IF(Preferences!O11="P",1,(IF(Preferences!O11="N",0,(IF(Preferences!O11="U",-1,(IF(Preferences!O11="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="N1">
+        <f>IF(Preferences!P11="P",1,(IF(Preferences!P11="N",0,(IF(Preferences!P11="U",-1,(IF(Preferences!P11="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <f>IF(Preferences!Q11="P",1,(IF(Preferences!Q11="N",0,(IF(Preferences!Q11="U",-1,(IF(Preferences!Q11="C",-1000)))))))</f>
+        <v>-1</v>
+      </c>
+      <c r="P1">
+        <f>IF(Preferences!R11="P",1,(IF(Preferences!R11="N",0,(IF(Preferences!R11="U",-1,(IF(Preferences!R11="C",-1000)))))))</f>
+        <v>-1</v>
+      </c>
+      <c r="Q1">
+        <f>IF(Preferences!S11="P",1,(IF(Preferences!S11="N",0,(IF(Preferences!S11="U",-1,(IF(Preferences!S11="C",-1000)))))))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>IF(Preferences!C12="P",1,(IF(Preferences!C12="N",0,(IF(Preferences!C12="U",-1,(IF(Preferences!C12="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="B2">
+        <f>IF(Preferences!D12="P",1,(IF(Preferences!D12="N",0,(IF(Preferences!D12="U",-1,(IF(Preferences!D12="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="C2">
+        <f>IF(Preferences!E12="P",1,(IF(Preferences!E12="N",0,(IF(Preferences!E12="U",-1,(IF(Preferences!E12="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="D2">
+        <f>IF(Preferences!F12="P",1,(IF(Preferences!F12="N",0,(IF(Preferences!F12="U",-1,(IF(Preferences!F12="C",-1000)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>IF(Preferences!G12="P",1,(IF(Preferences!G12="N",0,(IF(Preferences!G12="U",-1,(IF(Preferences!G12="C",-1000)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>IF(Preferences!H12="P",1,(IF(Preferences!H12="N",0,(IF(Preferences!H12="U",-1,(IF(Preferences!H12="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="G2">
+        <f>IF(Preferences!I12="P",1,(IF(Preferences!I12="N",0,(IF(Preferences!I12="U",-1,(IF(Preferences!I12="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF(Preferences!J12="P",1,(IF(Preferences!J12="N",0,(IF(Preferences!J12="U",-1,(IF(Preferences!J12="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="I2">
+        <f>IF(Preferences!K12="P",1,(IF(Preferences!K12="N",0,(IF(Preferences!K12="U",-1,(IF(Preferences!K12="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>IF(Preferences!L12="P",1,(IF(Preferences!L12="N",0,(IF(Preferences!L12="U",-1,(IF(Preferences!L12="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="K2">
+        <f>IF(Preferences!M12="P",1,(IF(Preferences!M12="N",0,(IF(Preferences!M12="U",-1,(IF(Preferences!M12="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IF(Preferences!N12="P",1,(IF(Preferences!N12="N",0,(IF(Preferences!N12="U",-1,(IF(Preferences!N12="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="M2">
+        <f>IF(Preferences!O12="P",1,(IF(Preferences!O12="N",0,(IF(Preferences!O12="U",-1,(IF(Preferences!O12="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>IF(Preferences!P12="P",1,(IF(Preferences!P12="N",0,(IF(Preferences!P12="U",-1,(IF(Preferences!P12="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="O2">
+        <f>IF(Preferences!Q12="P",1,(IF(Preferences!Q12="N",0,(IF(Preferences!Q12="U",-1,(IF(Preferences!Q12="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>IF(Preferences!R12="P",1,(IF(Preferences!R12="N",0,(IF(Preferences!R12="U",-1,(IF(Preferences!R12="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>IF(Preferences!S12="P",1,(IF(Preferences!S12="N",0,(IF(Preferences!S12="U",-1,(IF(Preferences!S12="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>IF(Preferences!C13="P",1,(IF(Preferences!C13="N",0,(IF(Preferences!C13="U",-1,(IF(Preferences!C13="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>IF(Preferences!D13="P",1,(IF(Preferences!D13="N",0,(IF(Preferences!D13="U",-1,(IF(Preferences!D13="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>IF(Preferences!E13="P",1,(IF(Preferences!E13="N",0,(IF(Preferences!E13="U",-1,(IF(Preferences!E13="C",-1000)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>IF(Preferences!F13="P",1,(IF(Preferences!F13="N",0,(IF(Preferences!F13="U",-1,(IF(Preferences!F13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="E3">
+        <f>IF(Preferences!G13="P",1,(IF(Preferences!G13="N",0,(IF(Preferences!G13="U",-1,(IF(Preferences!G13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="F3">
+        <f>IF(Preferences!H13="P",1,(IF(Preferences!H13="N",0,(IF(Preferences!H13="U",-1,(IF(Preferences!H13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="G3">
+        <f>IF(Preferences!I13="P",1,(IF(Preferences!I13="N",0,(IF(Preferences!I13="U",-1,(IF(Preferences!I13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="H3">
+        <f>IF(Preferences!J13="P",1,(IF(Preferences!J13="N",0,(IF(Preferences!J13="U",-1,(IF(Preferences!J13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="I3">
+        <f>IF(Preferences!K13="P",1,(IF(Preferences!K13="N",0,(IF(Preferences!K13="U",-1,(IF(Preferences!K13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="J3">
+        <f>IF(Preferences!L13="P",1,(IF(Preferences!L13="N",0,(IF(Preferences!L13="U",-1,(IF(Preferences!L13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="K3">
+        <f>IF(Preferences!M13="P",1,(IF(Preferences!M13="N",0,(IF(Preferences!M13="U",-1,(IF(Preferences!M13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="L3">
+        <f>IF(Preferences!N13="P",1,(IF(Preferences!N13="N",0,(IF(Preferences!N13="U",-1,(IF(Preferences!N13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="M3">
+        <f>IF(Preferences!O13="P",1,(IF(Preferences!O13="N",0,(IF(Preferences!O13="U",-1,(IF(Preferences!O13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="N3">
+        <f>IF(Preferences!P13="P",1,(IF(Preferences!P13="N",0,(IF(Preferences!P13="U",-1,(IF(Preferences!P13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="O3">
+        <f>IF(Preferences!Q13="P",1,(IF(Preferences!Q13="N",0,(IF(Preferences!Q13="U",-1,(IF(Preferences!Q13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="P3">
+        <f>IF(Preferences!R13="P",1,(IF(Preferences!R13="N",0,(IF(Preferences!R13="U",-1,(IF(Preferences!R13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="Q3">
+        <f>IF(Preferences!S13="P",1,(IF(Preferences!S13="N",0,(IF(Preferences!S13="U",-1,(IF(Preferences!S13="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>IF(Preferences!C14="P",1,(IF(Preferences!C14="N",0,(IF(Preferences!C14="U",-1,(IF(Preferences!C14="C",-1000)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>IF(Preferences!D14="P",1,(IF(Preferences!D14="N",0,(IF(Preferences!D14="U",-1,(IF(Preferences!D14="C",-1000)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>IF(Preferences!E14="P",1,(IF(Preferences!E14="N",0,(IF(Preferences!E14="U",-1,(IF(Preferences!E14="C",-1000)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>IF(Preferences!F14="P",1,(IF(Preferences!F14="N",0,(IF(Preferences!F14="U",-1,(IF(Preferences!F14="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="E4">
+        <f>IF(Preferences!G14="P",1,(IF(Preferences!G14="N",0,(IF(Preferences!G14="U",-1,(IF(Preferences!G14="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>IF(Preferences!H14="P",1,(IF(Preferences!H14="N",0,(IF(Preferences!H14="U",-1,(IF(Preferences!H14="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="G4">
+        <f>IF(Preferences!I14="P",1,(IF(Preferences!I14="N",0,(IF(Preferences!I14="U",-1,(IF(Preferences!I14="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="H4">
+        <f>IF(Preferences!J14="P",1,(IF(Preferences!J14="N",0,(IF(Preferences!J14="U",-1,(IF(Preferences!J14="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="I4">
+        <f>IF(Preferences!K14="P",1,(IF(Preferences!K14="N",0,(IF(Preferences!K14="U",-1,(IF(Preferences!K14="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="J4">
+        <f>IF(Preferences!L14="P",1,(IF(Preferences!L14="N",0,(IF(Preferences!L14="U",-1,(IF(Preferences!L14="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="K4">
+        <f>IF(Preferences!M14="P",1,(IF(Preferences!M14="N",0,(IF(Preferences!M14="U",-1,(IF(Preferences!M14="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="L4">
+        <f>IF(Preferences!N14="P",1,(IF(Preferences!N14="N",0,(IF(Preferences!N14="U",-1,(IF(Preferences!N14="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="M4">
+        <f>IF(Preferences!O14="P",1,(IF(Preferences!O14="N",0,(IF(Preferences!O14="U",-1,(IF(Preferences!O14="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="N4">
+        <f>IF(Preferences!P14="P",1,(IF(Preferences!P14="N",0,(IF(Preferences!P14="U",-1,(IF(Preferences!P14="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="O4">
+        <f>IF(Preferences!Q14="P",1,(IF(Preferences!Q14="N",0,(IF(Preferences!Q14="U",-1,(IF(Preferences!Q14="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="P4">
+        <f>IF(Preferences!R14="P",1,(IF(Preferences!R14="N",0,(IF(Preferences!R14="U",-1,(IF(Preferences!R14="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="Q4">
+        <f>IF(Preferences!S14="P",1,(IF(Preferences!S14="N",0,(IF(Preferences!S14="U",-1,(IF(Preferences!S14="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>IF(Preferences!C15="P",1,(IF(Preferences!C15="N",0,(IF(Preferences!C15="U",-1,(IF(Preferences!C15="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <f>IF(Preferences!D15="P",1,(IF(Preferences!D15="N",0,(IF(Preferences!D15="U",-1,(IF(Preferences!D15="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>IF(Preferences!E15="P",1,(IF(Preferences!E15="N",0,(IF(Preferences!E15="U",-1,(IF(Preferences!E15="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>IF(Preferences!F15="P",1,(IF(Preferences!F15="N",0,(IF(Preferences!F15="U",-1,(IF(Preferences!F15="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>IF(Preferences!G15="P",1,(IF(Preferences!G15="N",0,(IF(Preferences!G15="U",-1,(IF(Preferences!G15="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>IF(Preferences!H15="P",1,(IF(Preferences!H15="N",0,(IF(Preferences!H15="U",-1,(IF(Preferences!H15="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="G5">
+        <f>IF(Preferences!I15="P",1,(IF(Preferences!I15="N",0,(IF(Preferences!I15="U",-1,(IF(Preferences!I15="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="H5">
+        <f>IF(Preferences!J15="P",1,(IF(Preferences!J15="N",0,(IF(Preferences!J15="U",-1,(IF(Preferences!J15="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="I5">
+        <f>IF(Preferences!K15="P",1,(IF(Preferences!K15="N",0,(IF(Preferences!K15="U",-1,(IF(Preferences!K15="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="J5">
+        <f>IF(Preferences!L15="P",1,(IF(Preferences!L15="N",0,(IF(Preferences!L15="U",-1,(IF(Preferences!L15="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="K5">
+        <f>IF(Preferences!M15="P",1,(IF(Preferences!M15="N",0,(IF(Preferences!M15="U",-1,(IF(Preferences!M15="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="L5">
+        <f>IF(Preferences!N15="P",1,(IF(Preferences!N15="N",0,(IF(Preferences!N15="U",-1,(IF(Preferences!N15="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="M5">
+        <f>IF(Preferences!O15="P",1,(IF(Preferences!O15="N",0,(IF(Preferences!O15="U",-1,(IF(Preferences!O15="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="N5">
+        <f>IF(Preferences!P15="P",1,(IF(Preferences!P15="N",0,(IF(Preferences!P15="U",-1,(IF(Preferences!P15="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="O5">
+        <f>IF(Preferences!Q15="P",1,(IF(Preferences!Q15="N",0,(IF(Preferences!Q15="U",-1,(IF(Preferences!Q15="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="P5">
+        <f>IF(Preferences!R15="P",1,(IF(Preferences!R15="N",0,(IF(Preferences!R15="U",-1,(IF(Preferences!R15="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="Q5">
+        <f>IF(Preferences!S15="P",1,(IF(Preferences!S15="N",0,(IF(Preferences!S15="U",-1,(IF(Preferences!S15="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>IF(Preferences!C16="P",1,(IF(Preferences!C16="N",0,(IF(Preferences!C16="U",-1,(IF(Preferences!C16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="B6">
+        <f>IF(Preferences!D16="P",1,(IF(Preferences!D16="N",0,(IF(Preferences!D16="U",-1,(IF(Preferences!D16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="C6">
+        <f>IF(Preferences!E16="P",1,(IF(Preferences!E16="N",0,(IF(Preferences!E16="U",-1,(IF(Preferences!E16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="D6">
+        <f>IF(Preferences!F16="P",1,(IF(Preferences!F16="N",0,(IF(Preferences!F16="U",-1,(IF(Preferences!F16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="E6">
+        <f>IF(Preferences!G16="P",1,(IF(Preferences!G16="N",0,(IF(Preferences!G16="U",-1,(IF(Preferences!G16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="F6">
+        <f>IF(Preferences!H16="P",1,(IF(Preferences!H16="N",0,(IF(Preferences!H16="U",-1,(IF(Preferences!H16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="G6">
+        <f>IF(Preferences!I16="P",1,(IF(Preferences!I16="N",0,(IF(Preferences!I16="U",-1,(IF(Preferences!I16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="H6">
+        <f>IF(Preferences!J16="P",1,(IF(Preferences!J16="N",0,(IF(Preferences!J16="U",-1,(IF(Preferences!J16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="I6">
+        <f>IF(Preferences!K16="P",1,(IF(Preferences!K16="N",0,(IF(Preferences!K16="U",-1,(IF(Preferences!K16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="J6">
+        <f>IF(Preferences!L16="P",1,(IF(Preferences!L16="N",0,(IF(Preferences!L16="U",-1,(IF(Preferences!L16="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>IF(Preferences!M16="P",1,(IF(Preferences!M16="N",0,(IF(Preferences!M16="U",-1,(IF(Preferences!M16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="L6">
+        <f>IF(Preferences!N16="P",1,(IF(Preferences!N16="N",0,(IF(Preferences!N16="U",-1,(IF(Preferences!N16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="M6">
+        <f>IF(Preferences!O16="P",1,(IF(Preferences!O16="N",0,(IF(Preferences!O16="U",-1,(IF(Preferences!O16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="N6">
+        <f>IF(Preferences!P16="P",1,(IF(Preferences!P16="N",0,(IF(Preferences!P16="U",-1,(IF(Preferences!P16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="O6">
+        <f>IF(Preferences!Q16="P",1,(IF(Preferences!Q16="N",0,(IF(Preferences!Q16="U",-1,(IF(Preferences!Q16="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>IF(Preferences!R16="P",1,(IF(Preferences!R16="N",0,(IF(Preferences!R16="U",-1,(IF(Preferences!R16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="Q6">
+        <f>IF(Preferences!S16="P",1,(IF(Preferences!S16="N",0,(IF(Preferences!S16="U",-1,(IF(Preferences!S16="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>IF(Preferences!C17="P",1,(IF(Preferences!C17="N",0,(IF(Preferences!C17="U",-1,(IF(Preferences!C17="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="B7">
+        <f>IF(Preferences!D17="P",1,(IF(Preferences!D17="N",0,(IF(Preferences!D17="U",-1,(IF(Preferences!D17="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="C7">
+        <f>IF(Preferences!E17="P",1,(IF(Preferences!E17="N",0,(IF(Preferences!E17="U",-1,(IF(Preferences!E17="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="D7">
+        <f>IF(Preferences!F17="P",1,(IF(Preferences!F17="N",0,(IF(Preferences!F17="U",-1,(IF(Preferences!F17="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="E7">
+        <f>IF(Preferences!G17="P",1,(IF(Preferences!G17="N",0,(IF(Preferences!G17="U",-1,(IF(Preferences!G17="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="F7">
+        <f>IF(Preferences!H17="P",1,(IF(Preferences!H17="N",0,(IF(Preferences!H17="U",-1,(IF(Preferences!H17="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="G7">
+        <f>IF(Preferences!I17="P",1,(IF(Preferences!I17="N",0,(IF(Preferences!I17="U",-1,(IF(Preferences!I17="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="H7">
+        <f>IF(Preferences!J17="P",1,(IF(Preferences!J17="N",0,(IF(Preferences!J17="U",-1,(IF(Preferences!J17="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="I7">
+        <f>IF(Preferences!K17="P",1,(IF(Preferences!K17="N",0,(IF(Preferences!K17="U",-1,(IF(Preferences!K17="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="J7">
+        <f>IF(Preferences!L17="P",1,(IF(Preferences!L17="N",0,(IF(Preferences!L17="U",-1,(IF(Preferences!L17="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>IF(Preferences!M17="P",1,(IF(Preferences!M17="N",0,(IF(Preferences!M17="U",-1,(IF(Preferences!M17="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>IF(Preferences!N17="P",1,(IF(Preferences!N17="N",0,(IF(Preferences!N17="U",-1,(IF(Preferences!N17="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>IF(Preferences!O17="P",1,(IF(Preferences!O17="N",0,(IF(Preferences!O17="U",-1,(IF(Preferences!O17="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>IF(Preferences!P17="P",1,(IF(Preferences!P17="N",0,(IF(Preferences!P17="U",-1,(IF(Preferences!P17="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="O7">
+        <f>IF(Preferences!Q17="P",1,(IF(Preferences!Q17="N",0,(IF(Preferences!Q17="U",-1,(IF(Preferences!Q17="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="P7">
+        <f>IF(Preferences!R17="P",1,(IF(Preferences!R17="N",0,(IF(Preferences!R17="U",-1,(IF(Preferences!R17="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>IF(Preferences!S17="P",1,(IF(Preferences!S17="N",0,(IF(Preferences!S17="U",-1,(IF(Preferences!S17="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>IF(Preferences!C18="P",1,(IF(Preferences!C18="N",0,(IF(Preferences!C18="U",-1,(IF(Preferences!C18="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="B8">
+        <f>IF(Preferences!D18="P",1,(IF(Preferences!D18="N",0,(IF(Preferences!D18="U",-1,(IF(Preferences!D18="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="C8">
+        <f>IF(Preferences!E18="P",1,(IF(Preferences!E18="N",0,(IF(Preferences!E18="U",-1,(IF(Preferences!E18="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="D8">
+        <f>IF(Preferences!F18="P",1,(IF(Preferences!F18="N",0,(IF(Preferences!F18="U",-1,(IF(Preferences!F18="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="E8">
+        <f>IF(Preferences!G18="P",1,(IF(Preferences!G18="N",0,(IF(Preferences!G18="U",-1,(IF(Preferences!G18="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="F8">
+        <f>IF(Preferences!H18="P",1,(IF(Preferences!H18="N",0,(IF(Preferences!H18="U",-1,(IF(Preferences!H18="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="G8">
+        <f>IF(Preferences!I18="P",1,(IF(Preferences!I18="N",0,(IF(Preferences!I18="U",-1,(IF(Preferences!I18="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>IF(Preferences!J18="P",1,(IF(Preferences!J18="N",0,(IF(Preferences!J18="U",-1,(IF(Preferences!J18="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="I8">
+        <f>IF(Preferences!K18="P",1,(IF(Preferences!K18="N",0,(IF(Preferences!K18="U",-1,(IF(Preferences!K18="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>IF(Preferences!L18="P",1,(IF(Preferences!L18="N",0,(IF(Preferences!L18="U",-1,(IF(Preferences!L18="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="K8">
+        <f>IF(Preferences!M18="P",1,(IF(Preferences!M18="N",0,(IF(Preferences!M18="U",-1,(IF(Preferences!M18="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>IF(Preferences!N18="P",1,(IF(Preferences!N18="N",0,(IF(Preferences!N18="U",-1,(IF(Preferences!N18="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="M8">
+        <f>IF(Preferences!O18="P",1,(IF(Preferences!O18="N",0,(IF(Preferences!O18="U",-1,(IF(Preferences!O18="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>IF(Preferences!P18="P",1,(IF(Preferences!P18="N",0,(IF(Preferences!P18="U",-1,(IF(Preferences!P18="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="O8">
+        <f>IF(Preferences!Q18="P",1,(IF(Preferences!Q18="N",0,(IF(Preferences!Q18="U",-1,(IF(Preferences!Q18="C",-1000)))))))</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>IF(Preferences!R18="P",1,(IF(Preferences!R18="N",0,(IF(Preferences!R18="U",-1,(IF(Preferences!R18="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+      <c r="Q8">
+        <f>IF(Preferences!S18="P",1,(IF(Preferences!S18="N",0,(IF(Preferences!S18="U",-1,(IF(Preferences!S18="C",-1000)))))))</f>
+        <v>-1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB5B29F-A41A-4921-BC0F-9A953F72C9B0}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873E99C-54D7-42F4-80D7-7C19170AA59C}">
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="15.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
+      <c r="C2" s="47"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="49">
+        <v>0</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="34">
+        <v>1</v>
+      </c>
+      <c r="D7" s="35">
+        <v>2</v>
+      </c>
+      <c r="E7" s="35">
+        <v>3</v>
+      </c>
+      <c r="F7" s="35">
+        <v>4</v>
+      </c>
+      <c r="G7" s="35">
+        <v>5</v>
+      </c>
+      <c r="H7" s="36">
+        <v>6</v>
+      </c>
+      <c r="I7" s="36">
+        <v>7</v>
+      </c>
+      <c r="J7" s="36">
+        <v>8</v>
+      </c>
+      <c r="K7" s="36">
+        <v>9</v>
+      </c>
+      <c r="L7" s="36">
+        <v>10</v>
+      </c>
+      <c r="M7" s="36">
+        <v>11</v>
+      </c>
+      <c r="N7" s="36">
+        <v>12</v>
+      </c>
+      <c r="O7" s="36">
+        <v>13</v>
+      </c>
+      <c r="P7" s="36">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>15</v>
+      </c>
+      <c r="R7" s="36">
+        <v>16</v>
+      </c>
+      <c r="S7" s="37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>1</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="52">
+        <f>[1]AssnMatrix!A1</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="53">
+        <f>[1]AssnMatrix!B1</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="53">
+        <f>[1]AssnMatrix!C1</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="53">
+        <f>[1]AssnMatrix!D1</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="53">
+        <f>[1]AssnMatrix!E1</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="53">
+        <f>[1]AssnMatrix!F1</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="53">
+        <f>[1]AssnMatrix!G1</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="53">
+        <f>[1]AssnMatrix!H1</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="53">
+        <f>[1]AssnMatrix!I1</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="53">
+        <f>[1]AssnMatrix!J1</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <f>[1]AssnMatrix!K1</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="53">
+        <f>[1]AssnMatrix!L1</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="53">
+        <f>[1]AssnMatrix!M1</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="53">
+        <f>[1]AssnMatrix!N1</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="53">
+        <f>[1]AssnMatrix!O1</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="53">
+        <f>[1]AssnMatrix!P1</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="54">
+        <f>[1]AssnMatrix!Q1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="55">
+        <f>[1]AssnMatrix!A2</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <f>[1]AssnMatrix!B2</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <f>[1]AssnMatrix!C2</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <f>[1]AssnMatrix!D2</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <f>[1]AssnMatrix!E2</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <f>[1]AssnMatrix!F2</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <f>[1]AssnMatrix!G2</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <f>[1]AssnMatrix!H2</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <f>[1]AssnMatrix!I2</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="17">
+        <f>[1]AssnMatrix!J2</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <f>[1]AssnMatrix!K2</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="17">
+        <f>[1]AssnMatrix!L2</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="17">
+        <f>[1]AssnMatrix!M2</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="17">
+        <f>[1]AssnMatrix!N2</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17">
+        <f>[1]AssnMatrix!O2</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="17">
+        <f>[1]AssnMatrix!P2</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="56">
+        <f>[1]AssnMatrix!Q2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="55">
+        <f>[1]AssnMatrix!A3</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
+        <f>[1]AssnMatrix!B3</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <f>[1]AssnMatrix!C3</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="17">
+        <f>[1]AssnMatrix!D3</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <f>[1]AssnMatrix!E3</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="17">
+        <f>[1]AssnMatrix!F3</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <f>[1]AssnMatrix!G3</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <f>[1]AssnMatrix!H3</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <f>[1]AssnMatrix!I3</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
+        <f>[1]AssnMatrix!J3</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <f>[1]AssnMatrix!K3</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
+        <f>[1]AssnMatrix!L3</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="17">
+        <f>[1]AssnMatrix!M3</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
+        <f>[1]AssnMatrix!N3</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="17">
+        <f>[1]AssnMatrix!O3</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="17">
+        <f>[1]AssnMatrix!P3</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="56">
+        <f>[1]AssnMatrix!Q3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="55">
+        <f>[1]AssnMatrix!A4</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
+        <f>[1]AssnMatrix!B4</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <f>[1]AssnMatrix!C4</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <f>[1]AssnMatrix!D4</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <f>[1]AssnMatrix!E4</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <f>[1]AssnMatrix!F4</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <f>[1]AssnMatrix!G4</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <f>[1]AssnMatrix!H4</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <f>[1]AssnMatrix!I4</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
+        <f>[1]AssnMatrix!J4</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <f>[1]AssnMatrix!K4</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
+        <f>[1]AssnMatrix!L4</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="17">
+        <f>[1]AssnMatrix!M4</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <f>[1]AssnMatrix!N4</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="17">
+        <f>[1]AssnMatrix!O4</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="17">
+        <f>[1]AssnMatrix!P4</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="56">
+        <f>[1]AssnMatrix!Q4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="55">
+        <f>[1]AssnMatrix!A5</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <f>[1]AssnMatrix!B5</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <f>[1]AssnMatrix!C5</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <f>[1]AssnMatrix!D5</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
+        <f>[1]AssnMatrix!E5</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <f>[1]AssnMatrix!F5</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <f>[1]AssnMatrix!G5</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <f>[1]AssnMatrix!H5</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
+        <f>[1]AssnMatrix!I5</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="17">
+        <f>[1]AssnMatrix!J5</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <f>[1]AssnMatrix!K5</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="17">
+        <f>[1]AssnMatrix!L5</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="17">
+        <f>[1]AssnMatrix!M5</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="17">
+        <f>[1]AssnMatrix!N5</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="17">
+        <f>[1]AssnMatrix!O5</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="17">
+        <f>[1]AssnMatrix!P5</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="56">
+        <f>[1]AssnMatrix!Q5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="55">
+        <f>[1]AssnMatrix!A6</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <f>[1]AssnMatrix!B6</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <f>[1]AssnMatrix!C6</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f>[1]AssnMatrix!D6</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <f>[1]AssnMatrix!E6</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <f>[1]AssnMatrix!F6</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <f>[1]AssnMatrix!G6</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <f>[1]AssnMatrix!H6</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="17">
+        <f>[1]AssnMatrix!I6</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="17">
+        <f>[1]AssnMatrix!J6</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="17">
+        <f>[1]AssnMatrix!K6</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="17">
+        <f>[1]AssnMatrix!L6</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="17">
+        <f>[1]AssnMatrix!M6</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="17">
+        <f>[1]AssnMatrix!N6</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="17">
+        <f>[1]AssnMatrix!O6</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="17">
+        <f>[1]AssnMatrix!P6</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="56">
+        <f>[1]AssnMatrix!Q6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="55">
+        <f>[1]AssnMatrix!A7</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <f>[1]AssnMatrix!B7</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <f>[1]AssnMatrix!C7</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <f>[1]AssnMatrix!D7</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <f>[1]AssnMatrix!E7</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <f>[1]AssnMatrix!F7</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <f>[1]AssnMatrix!G7</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <f>[1]AssnMatrix!H7</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="17">
+        <f>[1]AssnMatrix!I7</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
+        <f>[1]AssnMatrix!J7</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="17">
+        <f>[1]AssnMatrix!K7</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="17">
+        <f>[1]AssnMatrix!L7</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="17">
+        <f>[1]AssnMatrix!M7</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="17">
+        <f>[1]AssnMatrix!N7</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="17">
+        <f>[1]AssnMatrix!O7</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="17">
+        <f>[1]AssnMatrix!P7</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="56">
+        <f>[1]AssnMatrix!Q7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>8</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="57">
+        <f>[1]AssnMatrix!A8</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="58">
+        <f>[1]AssnMatrix!B8</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="58">
+        <f>[1]AssnMatrix!C8</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="58">
+        <f>[1]AssnMatrix!D8</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="58">
+        <f>[1]AssnMatrix!E8</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="58">
+        <f>[1]AssnMatrix!F8</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="58">
+        <f>[1]AssnMatrix!G8</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="58">
+        <f>[1]AssnMatrix!H8</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="58">
+        <f>[1]AssnMatrix!I8</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="58">
+        <f>[1]AssnMatrix!J8</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="58">
+        <f>[1]AssnMatrix!K8</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="58">
+        <f>[1]AssnMatrix!L8</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="58">
+        <f>[1]AssnMatrix!M8</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="58">
+        <f>[1]AssnMatrix!N8</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="58">
+        <f>[1]AssnMatrix!O8</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="58">
+        <f>[1]AssnMatrix!P8</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="59">
+        <f>[1]AssnMatrix!Q8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C11:S18">
+    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="28" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",C11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="18" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="19" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="20" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",A4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="14" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",A4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="16" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",A5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="10" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",A5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="12" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\spl-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4472B739-6FCC-4149-B41F-78A25C848B6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8014A6B4-802F-4EDF-8373-92B379157BBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Preferences" sheetId="1" r:id="rId1"/>
@@ -326,13 +326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,36 +894,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -950,11 +931,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="43">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1006,205 +1006,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1551,339 +1352,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2634,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1377A6A-D636-40DB-9A3C-30FAF9FA189C}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:S18"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2645,47 +2113,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="58"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="58"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="58"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="47"/>
+      <c r="C5" s="58"/>
     </row>
     <row r="6" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2856,10 +2324,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="45"/>
+      <c r="A10" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="56"/>
       <c r="C10" s="22" t="s">
         <v>4</v>
       </c>
@@ -3399,72 +2867,72 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:S18">
-    <cfRule type="containsText" dxfId="100" priority="17" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="18" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="41" priority="18" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="19" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="20" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="39" priority="20" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="96" priority="13" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="14" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="15" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="16" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="containsText" dxfId="92" priority="9" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="10" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="33" priority="10" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="11" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="12" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="88" priority="5" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="6" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="7" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="8" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="84" priority="1" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="2" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="4" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3494,18 +2962,18 @@
       <c r="A1" s="42">
         <v>8</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="42">
         <v>17</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
@@ -4439,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873E99C-54D7-42F4-80D7-7C19170AA59C}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScale="66" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4450,39 +3918,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="47"/>
+      <c r="C2" s="58"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="49">
-        <v>0</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="53">
+        <v>0</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="58"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
     </row>
     <row r="6" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -4653,10 +4121,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="45"/>
+      <c r="A10" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="56"/>
       <c r="C10" s="21" t="s">
         <v>4</v>
       </c>
@@ -4713,74 +4181,74 @@
       <c r="A11" s="33">
         <v>1</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="45">
         <f>[1]AssnMatrix!A1</f>
         <v>0</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="46">
         <f>[1]AssnMatrix!B1</f>
         <v>0</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="46">
         <f>[1]AssnMatrix!C1</f>
         <v>0</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="46">
         <f>[1]AssnMatrix!D1</f>
         <v>0</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="46">
         <f>[1]AssnMatrix!E1</f>
         <v>0</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="46">
         <f>[1]AssnMatrix!F1</f>
         <v>1</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="46">
         <f>[1]AssnMatrix!G1</f>
         <v>0</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="46">
         <f>[1]AssnMatrix!H1</f>
         <v>1</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="46">
         <f>[1]AssnMatrix!I1</f>
         <v>0</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="46">
         <f>[1]AssnMatrix!J1</f>
         <v>0</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="46">
         <f>[1]AssnMatrix!K1</f>
         <v>0</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="46">
         <f>[1]AssnMatrix!L1</f>
         <v>0</v>
       </c>
-      <c r="O11" s="53">
+      <c r="O11" s="46">
         <f>[1]AssnMatrix!M1</f>
         <v>0</v>
       </c>
-      <c r="P11" s="53">
+      <c r="P11" s="46">
         <f>[1]AssnMatrix!N1</f>
         <v>1</v>
       </c>
-      <c r="Q11" s="53">
+      <c r="Q11" s="46">
         <f>[1]AssnMatrix!O1</f>
         <v>0</v>
       </c>
-      <c r="R11" s="53">
+      <c r="R11" s="46">
         <f>[1]AssnMatrix!P1</f>
         <v>0</v>
       </c>
-      <c r="S11" s="54">
+      <c r="S11" s="47">
         <f>[1]AssnMatrix!Q1</f>
         <v>0</v>
       </c>
@@ -4792,7 +4260,7 @@
       <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="48">
         <f>[1]AssnMatrix!A2</f>
         <v>0</v>
       </c>
@@ -4856,7 +4324,7 @@
         <f>[1]AssnMatrix!P2</f>
         <v>1</v>
       </c>
-      <c r="S12" s="56">
+      <c r="S12" s="49">
         <f>[1]AssnMatrix!Q2</f>
         <v>0</v>
       </c>
@@ -4868,7 +4336,7 @@
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="48">
         <f>[1]AssnMatrix!A3</f>
         <v>0</v>
       </c>
@@ -4932,7 +4400,7 @@
         <f>[1]AssnMatrix!P3</f>
         <v>0</v>
       </c>
-      <c r="S13" s="56">
+      <c r="S13" s="49">
         <f>[1]AssnMatrix!Q3</f>
         <v>0</v>
       </c>
@@ -4944,7 +4412,7 @@
       <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="48">
         <f>[1]AssnMatrix!A4</f>
         <v>1</v>
       </c>
@@ -5008,7 +4476,7 @@
         <f>[1]AssnMatrix!P4</f>
         <v>0</v>
       </c>
-      <c r="S14" s="56">
+      <c r="S14" s="49">
         <f>[1]AssnMatrix!Q4</f>
         <v>0</v>
       </c>
@@ -5020,7 +4488,7 @@
       <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="48">
         <f>[1]AssnMatrix!A5</f>
         <v>0</v>
       </c>
@@ -5084,7 +4552,7 @@
         <f>[1]AssnMatrix!P5</f>
         <v>0</v>
       </c>
-      <c r="S15" s="56">
+      <c r="S15" s="49">
         <f>[1]AssnMatrix!Q5</f>
         <v>0</v>
       </c>
@@ -5096,7 +4564,7 @@
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="48">
         <f>[1]AssnMatrix!A6</f>
         <v>0</v>
       </c>
@@ -5160,7 +4628,7 @@
         <f>[1]AssnMatrix!P6</f>
         <v>0</v>
       </c>
-      <c r="S16" s="56">
+      <c r="S16" s="49">
         <f>[1]AssnMatrix!Q6</f>
         <v>0</v>
       </c>
@@ -5172,7 +4640,7 @@
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="48">
         <f>[1]AssnMatrix!A7</f>
         <v>0</v>
       </c>
@@ -5236,7 +4704,7 @@
         <f>[1]AssnMatrix!P7</f>
         <v>0</v>
       </c>
-      <c r="S17" s="56">
+      <c r="S17" s="49">
         <f>[1]AssnMatrix!Q7</f>
         <v>1</v>
       </c>
@@ -5245,74 +4713,74 @@
       <c r="A18" s="12">
         <v>8</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="50">
         <f>[1]AssnMatrix!A8</f>
         <v>0</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="51">
         <f>[1]AssnMatrix!B8</f>
         <v>0</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="51">
         <f>[1]AssnMatrix!C8</f>
         <v>0</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="51">
         <f>[1]AssnMatrix!D8</f>
         <v>0</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="51">
         <f>[1]AssnMatrix!E8</f>
         <v>0</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="51">
         <f>[1]AssnMatrix!F8</f>
         <v>0</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="51">
         <f>[1]AssnMatrix!G8</f>
         <v>1</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="51">
         <f>[1]AssnMatrix!H8</f>
         <v>0</v>
       </c>
-      <c r="K18" s="58">
+      <c r="K18" s="51">
         <f>[1]AssnMatrix!I8</f>
         <v>0</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="51">
         <f>[1]AssnMatrix!J8</f>
         <v>0</v>
       </c>
-      <c r="M18" s="58">
+      <c r="M18" s="51">
         <f>[1]AssnMatrix!K8</f>
         <v>0</v>
       </c>
-      <c r="N18" s="58">
+      <c r="N18" s="51">
         <f>[1]AssnMatrix!L8</f>
         <v>0</v>
       </c>
-      <c r="O18" s="58">
+      <c r="O18" s="51">
         <f>[1]AssnMatrix!M8</f>
         <v>0</v>
       </c>
-      <c r="P18" s="58">
+      <c r="P18" s="51">
         <f>[1]AssnMatrix!N8</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="58">
+      <c r="Q18" s="51">
         <f>[1]AssnMatrix!O8</f>
         <v>0</v>
       </c>
-      <c r="R18" s="58">
+      <c r="R18" s="51">
         <f>[1]AssnMatrix!P8</f>
         <v>0</v>
       </c>
-      <c r="S18" s="59">
+      <c r="S18" s="52">
         <f>[1]AssnMatrix!Q8</f>
         <v>0</v>
       </c>
@@ -5324,92 +4792,89 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:S18">
-    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",C11)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="28" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="19" priority="28" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",C11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="containsText" dxfId="56" priority="17" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="18" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="19" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="20" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="14" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="15" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="16" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="10" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="12" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\spl-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8014A6B4-802F-4EDF-8373-92B379157BBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDC37DC-C93D-4647-94C5-8D01CC1EBF28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Preferences" sheetId="1" r:id="rId1"/>
@@ -2102,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1377A6A-D636-40DB-9A3C-30FAF9FA189C}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="72" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -3907,7 +3907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873E99C-54D7-42F4-80D7-7C19170AA59C}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\spl-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDC37DC-C93D-4647-94C5-8D01CC1EBF28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C1DC05-E0EE-4FA3-807E-2F0F69B28855}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
   </bookViews>
@@ -954,7 +954,101 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1369,7 +1463,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="AssnMatrix"/>
+      <sheetName val="Assignments"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2867,72 +2961,72 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:S18">
-    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="18" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="51" priority="18" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="50" priority="19" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="20" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="49" priority="20" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="47" priority="14" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="45" priority="16" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="10" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="43" priority="10" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="41" priority="12" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3908,7 +4002,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4185,71 +4279,71 @@
         <v>7</v>
       </c>
       <c r="C11" s="45">
-        <f>[1]AssnMatrix!A1</f>
+        <f>[1]Assignments!A1</f>
         <v>0</v>
       </c>
       <c r="D11" s="46">
-        <f>[1]AssnMatrix!B1</f>
+        <f>[1]Assignments!B1</f>
         <v>0</v>
       </c>
       <c r="E11" s="46">
-        <f>[1]AssnMatrix!C1</f>
+        <f>[1]Assignments!C1</f>
         <v>0</v>
       </c>
       <c r="F11" s="46">
-        <f>[1]AssnMatrix!D1</f>
+        <f>[1]Assignments!D1</f>
         <v>0</v>
       </c>
       <c r="G11" s="46">
-        <f>[1]AssnMatrix!E1</f>
+        <f>[1]Assignments!E1</f>
         <v>0</v>
       </c>
       <c r="H11" s="46">
-        <f>[1]AssnMatrix!F1</f>
+        <f>[1]Assignments!F1</f>
         <v>1</v>
       </c>
       <c r="I11" s="46">
-        <f>[1]AssnMatrix!G1</f>
+        <f>[1]Assignments!G1</f>
         <v>0</v>
       </c>
       <c r="J11" s="46">
-        <f>[1]AssnMatrix!H1</f>
+        <f>[1]Assignments!H1</f>
         <v>1</v>
       </c>
       <c r="K11" s="46">
-        <f>[1]AssnMatrix!I1</f>
+        <f>[1]Assignments!I1</f>
         <v>0</v>
       </c>
       <c r="L11" s="46">
-        <f>[1]AssnMatrix!J1</f>
+        <f>[1]Assignments!J1</f>
         <v>0</v>
       </c>
       <c r="M11" s="46">
-        <f>[1]AssnMatrix!K1</f>
+        <f>[1]Assignments!K1</f>
         <v>0</v>
       </c>
       <c r="N11" s="46">
-        <f>[1]AssnMatrix!L1</f>
+        <f>[1]Assignments!L1</f>
         <v>0</v>
       </c>
       <c r="O11" s="46">
-        <f>[1]AssnMatrix!M1</f>
+        <f>[1]Assignments!M1</f>
         <v>0</v>
       </c>
       <c r="P11" s="46">
-        <f>[1]AssnMatrix!N1</f>
+        <f>[1]Assignments!N1</f>
         <v>1</v>
       </c>
       <c r="Q11" s="46">
-        <f>[1]AssnMatrix!O1</f>
+        <f>[1]Assignments!O1</f>
         <v>0</v>
       </c>
       <c r="R11" s="46">
-        <f>[1]AssnMatrix!P1</f>
+        <f>[1]Assignments!P1</f>
         <v>0</v>
       </c>
       <c r="S11" s="47">
-        <f>[1]AssnMatrix!Q1</f>
+        <f>[1]Assignments!Q1</f>
         <v>0</v>
       </c>
     </row>
@@ -4261,71 +4355,71 @@
         <v>8</v>
       </c>
       <c r="C12" s="48">
-        <f>[1]AssnMatrix!A2</f>
+        <f>[1]Assignments!A2</f>
         <v>0</v>
       </c>
       <c r="D12" s="17">
-        <f>[1]AssnMatrix!B2</f>
+        <f>[1]Assignments!B2</f>
         <v>0</v>
       </c>
       <c r="E12" s="17">
-        <f>[1]AssnMatrix!C2</f>
+        <f>[1]Assignments!C2</f>
         <v>0</v>
       </c>
       <c r="F12" s="17">
-        <f>[1]AssnMatrix!D2</f>
+        <f>[1]Assignments!D2</f>
         <v>0</v>
       </c>
       <c r="G12" s="17">
-        <f>[1]AssnMatrix!E2</f>
+        <f>[1]Assignments!E2</f>
         <v>0</v>
       </c>
       <c r="H12" s="17">
-        <f>[1]AssnMatrix!F2</f>
+        <f>[1]Assignments!F2</f>
         <v>0</v>
       </c>
       <c r="I12" s="17">
-        <f>[1]AssnMatrix!G2</f>
+        <f>[1]Assignments!G2</f>
         <v>0</v>
       </c>
       <c r="J12" s="17">
-        <f>[1]AssnMatrix!H2</f>
+        <f>[1]Assignments!H2</f>
         <v>0</v>
       </c>
       <c r="K12" s="17">
-        <f>[1]AssnMatrix!I2</f>
+        <f>[1]Assignments!I2</f>
         <v>1</v>
       </c>
       <c r="L12" s="17">
-        <f>[1]AssnMatrix!J2</f>
+        <f>[1]Assignments!J2</f>
         <v>0</v>
       </c>
       <c r="M12" s="17">
-        <f>[1]AssnMatrix!K2</f>
+        <f>[1]Assignments!K2</f>
         <v>1</v>
       </c>
       <c r="N12" s="17">
-        <f>[1]AssnMatrix!L2</f>
+        <f>[1]Assignments!L2</f>
         <v>0</v>
       </c>
       <c r="O12" s="17">
-        <f>[1]AssnMatrix!M2</f>
+        <f>[1]Assignments!M2</f>
         <v>1</v>
       </c>
       <c r="P12" s="17">
-        <f>[1]AssnMatrix!N2</f>
+        <f>[1]Assignments!N2</f>
         <v>0</v>
       </c>
       <c r="Q12" s="17">
-        <f>[1]AssnMatrix!O2</f>
+        <f>[1]Assignments!O2</f>
         <v>0</v>
       </c>
       <c r="R12" s="17">
-        <f>[1]AssnMatrix!P2</f>
+        <f>[1]Assignments!P2</f>
         <v>1</v>
       </c>
       <c r="S12" s="49">
-        <f>[1]AssnMatrix!Q2</f>
+        <f>[1]Assignments!Q2</f>
         <v>0</v>
       </c>
     </row>
@@ -4337,71 +4431,71 @@
         <v>9</v>
       </c>
       <c r="C13" s="48">
-        <f>[1]AssnMatrix!A3</f>
+        <f>[1]Assignments!A3</f>
         <v>0</v>
       </c>
       <c r="D13" s="17">
-        <f>[1]AssnMatrix!B3</f>
+        <f>[1]Assignments!B3</f>
         <v>0</v>
       </c>
       <c r="E13" s="17">
-        <f>[1]AssnMatrix!C3</f>
+        <f>[1]Assignments!C3</f>
         <v>1</v>
       </c>
       <c r="F13" s="17">
-        <f>[1]AssnMatrix!D3</f>
+        <f>[1]Assignments!D3</f>
         <v>0</v>
       </c>
       <c r="G13" s="17">
-        <f>[1]AssnMatrix!E3</f>
+        <f>[1]Assignments!E3</f>
         <v>0</v>
       </c>
       <c r="H13" s="17">
-        <f>[1]AssnMatrix!F3</f>
+        <f>[1]Assignments!F3</f>
         <v>0</v>
       </c>
       <c r="I13" s="17">
-        <f>[1]AssnMatrix!G3</f>
+        <f>[1]Assignments!G3</f>
         <v>0</v>
       </c>
       <c r="J13" s="17">
-        <f>[1]AssnMatrix!H3</f>
+        <f>[1]Assignments!H3</f>
         <v>0</v>
       </c>
       <c r="K13" s="17">
-        <f>[1]AssnMatrix!I3</f>
+        <f>[1]Assignments!I3</f>
         <v>0</v>
       </c>
       <c r="L13" s="17">
-        <f>[1]AssnMatrix!J3</f>
+        <f>[1]Assignments!J3</f>
         <v>0</v>
       </c>
       <c r="M13" s="17">
-        <f>[1]AssnMatrix!K3</f>
+        <f>[1]Assignments!K3</f>
         <v>0</v>
       </c>
       <c r="N13" s="17">
-        <f>[1]AssnMatrix!L3</f>
+        <f>[1]Assignments!L3</f>
         <v>0</v>
       </c>
       <c r="O13" s="17">
-        <f>[1]AssnMatrix!M3</f>
+        <f>[1]Assignments!M3</f>
         <v>0</v>
       </c>
       <c r="P13" s="17">
-        <f>[1]AssnMatrix!N3</f>
+        <f>[1]Assignments!N3</f>
         <v>0</v>
       </c>
       <c r="Q13" s="17">
-        <f>[1]AssnMatrix!O3</f>
+        <f>[1]Assignments!O3</f>
         <v>0</v>
       </c>
       <c r="R13" s="17">
-        <f>[1]AssnMatrix!P3</f>
+        <f>[1]Assignments!P3</f>
         <v>0</v>
       </c>
       <c r="S13" s="49">
-        <f>[1]AssnMatrix!Q3</f>
+        <f>[1]Assignments!Q3</f>
         <v>0</v>
       </c>
     </row>
@@ -4413,71 +4507,71 @@
         <v>10</v>
       </c>
       <c r="C14" s="48">
-        <f>[1]AssnMatrix!A4</f>
+        <f>[1]Assignments!A4</f>
         <v>1</v>
       </c>
       <c r="D14" s="17">
-        <f>[1]AssnMatrix!B4</f>
+        <f>[1]Assignments!B4</f>
         <v>1</v>
       </c>
       <c r="E14" s="17">
-        <f>[1]AssnMatrix!C4</f>
+        <f>[1]Assignments!C4</f>
         <v>0</v>
       </c>
       <c r="F14" s="17">
-        <f>[1]AssnMatrix!D4</f>
+        <f>[1]Assignments!D4</f>
         <v>0</v>
       </c>
       <c r="G14" s="17">
-        <f>[1]AssnMatrix!E4</f>
+        <f>[1]Assignments!E4</f>
         <v>1</v>
       </c>
       <c r="H14" s="17">
-        <f>[1]AssnMatrix!F4</f>
+        <f>[1]Assignments!F4</f>
         <v>0</v>
       </c>
       <c r="I14" s="17">
-        <f>[1]AssnMatrix!G4</f>
+        <f>[1]Assignments!G4</f>
         <v>0</v>
       </c>
       <c r="J14" s="17">
-        <f>[1]AssnMatrix!H4</f>
+        <f>[1]Assignments!H4</f>
         <v>0</v>
       </c>
       <c r="K14" s="17">
-        <f>[1]AssnMatrix!I4</f>
+        <f>[1]Assignments!I4</f>
         <v>0</v>
       </c>
       <c r="L14" s="17">
-        <f>[1]AssnMatrix!J4</f>
+        <f>[1]Assignments!J4</f>
         <v>0</v>
       </c>
       <c r="M14" s="17">
-        <f>[1]AssnMatrix!K4</f>
+        <f>[1]Assignments!K4</f>
         <v>0</v>
       </c>
       <c r="N14" s="17">
-        <f>[1]AssnMatrix!L4</f>
+        <f>[1]Assignments!L4</f>
         <v>0</v>
       </c>
       <c r="O14" s="17">
-        <f>[1]AssnMatrix!M4</f>
+        <f>[1]Assignments!M4</f>
         <v>0</v>
       </c>
       <c r="P14" s="17">
-        <f>[1]AssnMatrix!N4</f>
+        <f>[1]Assignments!N4</f>
         <v>0</v>
       </c>
       <c r="Q14" s="17">
-        <f>[1]AssnMatrix!O4</f>
+        <f>[1]Assignments!O4</f>
         <v>0</v>
       </c>
       <c r="R14" s="17">
-        <f>[1]AssnMatrix!P4</f>
+        <f>[1]Assignments!P4</f>
         <v>0</v>
       </c>
       <c r="S14" s="49">
-        <f>[1]AssnMatrix!Q4</f>
+        <f>[1]Assignments!Q4</f>
         <v>0</v>
       </c>
     </row>
@@ -4489,71 +4583,71 @@
         <v>11</v>
       </c>
       <c r="C15" s="48">
-        <f>[1]AssnMatrix!A5</f>
+        <f>[1]Assignments!A5</f>
         <v>0</v>
       </c>
       <c r="D15" s="17">
-        <f>[1]AssnMatrix!B5</f>
+        <f>[1]Assignments!B5</f>
         <v>0</v>
       </c>
       <c r="E15" s="17">
-        <f>[1]AssnMatrix!C5</f>
+        <f>[1]Assignments!C5</f>
         <v>0</v>
       </c>
       <c r="F15" s="17">
-        <f>[1]AssnMatrix!D5</f>
+        <f>[1]Assignments!D5</f>
         <v>1</v>
       </c>
       <c r="G15" s="17">
-        <f>[1]AssnMatrix!E5</f>
+        <f>[1]Assignments!E5</f>
         <v>0</v>
       </c>
       <c r="H15" s="17">
-        <f>[1]AssnMatrix!F5</f>
+        <f>[1]Assignments!F5</f>
         <v>0</v>
       </c>
       <c r="I15" s="17">
-        <f>[1]AssnMatrix!G5</f>
+        <f>[1]Assignments!G5</f>
         <v>0</v>
       </c>
       <c r="J15" s="17">
-        <f>[1]AssnMatrix!H5</f>
+        <f>[1]Assignments!H5</f>
         <v>0</v>
       </c>
       <c r="K15" s="17">
-        <f>[1]AssnMatrix!I5</f>
+        <f>[1]Assignments!I5</f>
         <v>0</v>
       </c>
       <c r="L15" s="17">
-        <f>[1]AssnMatrix!J5</f>
+        <f>[1]Assignments!J5</f>
         <v>0</v>
       </c>
       <c r="M15" s="17">
-        <f>[1]AssnMatrix!K5</f>
+        <f>[1]Assignments!K5</f>
         <v>0</v>
       </c>
       <c r="N15" s="17">
-        <f>[1]AssnMatrix!L5</f>
+        <f>[1]Assignments!L5</f>
         <v>0</v>
       </c>
       <c r="O15" s="17">
-        <f>[1]AssnMatrix!M5</f>
+        <f>[1]Assignments!M5</f>
         <v>0</v>
       </c>
       <c r="P15" s="17">
-        <f>[1]AssnMatrix!N5</f>
+        <f>[1]Assignments!N5</f>
         <v>0</v>
       </c>
       <c r="Q15" s="17">
-        <f>[1]AssnMatrix!O5</f>
+        <f>[1]Assignments!O5</f>
         <v>0</v>
       </c>
       <c r="R15" s="17">
-        <f>[1]AssnMatrix!P5</f>
+        <f>[1]Assignments!P5</f>
         <v>0</v>
       </c>
       <c r="S15" s="49">
-        <f>[1]AssnMatrix!Q5</f>
+        <f>[1]Assignments!Q5</f>
         <v>0</v>
       </c>
     </row>
@@ -4565,71 +4659,71 @@
         <v>12</v>
       </c>
       <c r="C16" s="48">
-        <f>[1]AssnMatrix!A6</f>
+        <f>[1]Assignments!A6</f>
         <v>0</v>
       </c>
       <c r="D16" s="17">
-        <f>[1]AssnMatrix!B6</f>
+        <f>[1]Assignments!B6</f>
         <v>0</v>
       </c>
       <c r="E16" s="17">
-        <f>[1]AssnMatrix!C6</f>
+        <f>[1]Assignments!C6</f>
         <v>0</v>
       </c>
       <c r="F16" s="17">
-        <f>[1]AssnMatrix!D6</f>
+        <f>[1]Assignments!D6</f>
         <v>0</v>
       </c>
       <c r="G16" s="17">
-        <f>[1]AssnMatrix!E6</f>
+        <f>[1]Assignments!E6</f>
         <v>0</v>
       </c>
       <c r="H16" s="17">
-        <f>[1]AssnMatrix!F6</f>
+        <f>[1]Assignments!F6</f>
         <v>0</v>
       </c>
       <c r="I16" s="17">
-        <f>[1]AssnMatrix!G6</f>
+        <f>[1]Assignments!G6</f>
         <v>0</v>
       </c>
       <c r="J16" s="17">
-        <f>[1]AssnMatrix!H6</f>
+        <f>[1]Assignments!H6</f>
         <v>0</v>
       </c>
       <c r="K16" s="17">
-        <f>[1]AssnMatrix!I6</f>
+        <f>[1]Assignments!I6</f>
         <v>0</v>
       </c>
       <c r="L16" s="17">
-        <f>[1]AssnMatrix!J6</f>
+        <f>[1]Assignments!J6</f>
         <v>1</v>
       </c>
       <c r="M16" s="17">
-        <f>[1]AssnMatrix!K6</f>
+        <f>[1]Assignments!K6</f>
         <v>0</v>
       </c>
       <c r="N16" s="17">
-        <f>[1]AssnMatrix!L6</f>
+        <f>[1]Assignments!L6</f>
         <v>0</v>
       </c>
       <c r="O16" s="17">
-        <f>[1]AssnMatrix!M6</f>
+        <f>[1]Assignments!M6</f>
         <v>0</v>
       </c>
       <c r="P16" s="17">
-        <f>[1]AssnMatrix!N6</f>
+        <f>[1]Assignments!N6</f>
         <v>0</v>
       </c>
       <c r="Q16" s="17">
-        <f>[1]AssnMatrix!O6</f>
+        <f>[1]Assignments!O6</f>
         <v>1</v>
       </c>
       <c r="R16" s="17">
-        <f>[1]AssnMatrix!P6</f>
+        <f>[1]Assignments!P6</f>
         <v>0</v>
       </c>
       <c r="S16" s="49">
-        <f>[1]AssnMatrix!Q6</f>
+        <f>[1]Assignments!Q6</f>
         <v>0</v>
       </c>
     </row>
@@ -4641,71 +4735,71 @@
         <v>13</v>
       </c>
       <c r="C17" s="48">
-        <f>[1]AssnMatrix!A7</f>
+        <f>[1]Assignments!A7</f>
         <v>0</v>
       </c>
       <c r="D17" s="17">
-        <f>[1]AssnMatrix!B7</f>
+        <f>[1]Assignments!B7</f>
         <v>0</v>
       </c>
       <c r="E17" s="17">
-        <f>[1]AssnMatrix!C7</f>
+        <f>[1]Assignments!C7</f>
         <v>0</v>
       </c>
       <c r="F17" s="17">
-        <f>[1]AssnMatrix!D7</f>
+        <f>[1]Assignments!D7</f>
         <v>0</v>
       </c>
       <c r="G17" s="17">
-        <f>[1]AssnMatrix!E7</f>
+        <f>[1]Assignments!E7</f>
         <v>0</v>
       </c>
       <c r="H17" s="17">
-        <f>[1]AssnMatrix!F7</f>
+        <f>[1]Assignments!F7</f>
         <v>0</v>
       </c>
       <c r="I17" s="17">
-        <f>[1]AssnMatrix!G7</f>
+        <f>[1]Assignments!G7</f>
         <v>0</v>
       </c>
       <c r="J17" s="17">
-        <f>[1]AssnMatrix!H7</f>
+        <f>[1]Assignments!H7</f>
         <v>0</v>
       </c>
       <c r="K17" s="17">
-        <f>[1]AssnMatrix!I7</f>
+        <f>[1]Assignments!I7</f>
         <v>0</v>
       </c>
       <c r="L17" s="17">
-        <f>[1]AssnMatrix!J7</f>
+        <f>[1]Assignments!J7</f>
         <v>0</v>
       </c>
       <c r="M17" s="17">
-        <f>[1]AssnMatrix!K7</f>
+        <f>[1]Assignments!K7</f>
         <v>0</v>
       </c>
       <c r="N17" s="17">
-        <f>[1]AssnMatrix!L7</f>
+        <f>[1]Assignments!L7</f>
         <v>1</v>
       </c>
       <c r="O17" s="17">
-        <f>[1]AssnMatrix!M7</f>
+        <f>[1]Assignments!M7</f>
         <v>0</v>
       </c>
       <c r="P17" s="17">
-        <f>[1]AssnMatrix!N7</f>
+        <f>[1]Assignments!N7</f>
         <v>0</v>
       </c>
       <c r="Q17" s="17">
-        <f>[1]AssnMatrix!O7</f>
+        <f>[1]Assignments!O7</f>
         <v>0</v>
       </c>
       <c r="R17" s="17">
-        <f>[1]AssnMatrix!P7</f>
+        <f>[1]Assignments!P7</f>
         <v>0</v>
       </c>
       <c r="S17" s="49">
-        <f>[1]AssnMatrix!Q7</f>
+        <f>[1]Assignments!Q7</f>
         <v>1</v>
       </c>
     </row>
@@ -4717,71 +4811,71 @@
         <v>14</v>
       </c>
       <c r="C18" s="50">
-        <f>[1]AssnMatrix!A8</f>
+        <f>[1]Assignments!A8</f>
         <v>0</v>
       </c>
       <c r="D18" s="51">
-        <f>[1]AssnMatrix!B8</f>
+        <f>[1]Assignments!B8</f>
         <v>0</v>
       </c>
       <c r="E18" s="51">
-        <f>[1]AssnMatrix!C8</f>
+        <f>[1]Assignments!C8</f>
         <v>0</v>
       </c>
       <c r="F18" s="51">
-        <f>[1]AssnMatrix!D8</f>
+        <f>[1]Assignments!D8</f>
         <v>0</v>
       </c>
       <c r="G18" s="51">
-        <f>[1]AssnMatrix!E8</f>
+        <f>[1]Assignments!E8</f>
         <v>0</v>
       </c>
       <c r="H18" s="51">
-        <f>[1]AssnMatrix!F8</f>
+        <f>[1]Assignments!F8</f>
         <v>0</v>
       </c>
       <c r="I18" s="51">
-        <f>[1]AssnMatrix!G8</f>
+        <f>[1]Assignments!G8</f>
         <v>1</v>
       </c>
       <c r="J18" s="51">
-        <f>[1]AssnMatrix!H8</f>
+        <f>[1]Assignments!H8</f>
         <v>0</v>
       </c>
       <c r="K18" s="51">
-        <f>[1]AssnMatrix!I8</f>
+        <f>[1]Assignments!I8</f>
         <v>0</v>
       </c>
       <c r="L18" s="51">
-        <f>[1]AssnMatrix!J8</f>
+        <f>[1]Assignments!J8</f>
         <v>0</v>
       </c>
       <c r="M18" s="51">
-        <f>[1]AssnMatrix!K8</f>
+        <f>[1]Assignments!K8</f>
         <v>0</v>
       </c>
       <c r="N18" s="51">
-        <f>[1]AssnMatrix!L8</f>
+        <f>[1]Assignments!L8</f>
         <v>0</v>
       </c>
       <c r="O18" s="51">
-        <f>[1]AssnMatrix!M8</f>
+        <f>[1]Assignments!M8</f>
         <v>0</v>
       </c>
       <c r="P18" s="51">
-        <f>[1]AssnMatrix!N8</f>
+        <f>[1]Assignments!N8</f>
         <v>0</v>
       </c>
       <c r="Q18" s="51">
-        <f>[1]AssnMatrix!O8</f>
+        <f>[1]Assignments!O8</f>
         <v>0</v>
       </c>
       <c r="R18" s="51">
-        <f>[1]AssnMatrix!P8</f>
+        <f>[1]Assignments!P8</f>
         <v>0</v>
       </c>
       <c r="S18" s="52">
-        <f>[1]AssnMatrix!Q8</f>
+        <f>[1]Assignments!Q8</f>
         <v>0</v>
       </c>
     </row>
@@ -4800,81 +4894,81 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:S18">
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="28" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",C11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\spl-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C1DC05-E0EE-4FA3-807E-2F0F69B28855}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B16CA7-2213-41D7-B03A-E128A514B24F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Preferences" sheetId="1" r:id="rId1"/>
     <sheet name="Dictionary" sheetId="2" r:id="rId2"/>
-    <sheet name="PrefMatrix" sheetId="3" r:id="rId3"/>
+    <sheet name="Preference Matrix" sheetId="3" r:id="rId3"/>
     <sheet name="Assignments" sheetId="6" r:id="rId4"/>
   </sheets>
   <externalReferences>
@@ -954,101 +954,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2961,72 +2867,72 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:S18">
-    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="18" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="41" priority="18" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="19" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="20" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="39" priority="20" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="14" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="16" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="containsText" dxfId="44" priority="9" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="10" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="33" priority="10" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="12" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="4" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3039,7 +2945,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3426,8 +3332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF632EB-8448-49AC-B390-FB4C681997FA}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4001,7 +3907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873E99C-54D7-42F4-80D7-7C19170AA59C}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -4894,81 +4800,81 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="C11:S18">
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="19" priority="28" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",C11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",A2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\spl-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B16CA7-2213-41D7-B03A-E128A514B24F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F7B42D-66E6-43B6-8968-39EE5D0A5DB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB2829CA-F4A0-41C5-B1C7-1ACBB28571D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Preferences" sheetId="1" r:id="rId1"/>
@@ -2102,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1377A6A-D636-40DB-9A3C-30FAF9FA189C}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -2944,7 +2944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688008D2-CBED-4999-94D8-55B52894BB1A}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -3332,7 +3332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF632EB-8448-49AC-B390-FB4C681997FA}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -3907,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873E99C-54D7-42F4-80D7-7C19170AA59C}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="105" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
